--- a/convNEXT骨干替换.xlsx
+++ b/convNEXT骨干替换.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiuli.dong\Desktop\其他资料\东财\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE986C59-4E7D-43C1-8259-008B12C0EC7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858BD022-1D0B-4E52-A7CB-F450AC16A842}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" xr2:uid="{0BCE3D49-F98F-4CCF-A299-F30632248283}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" activeTab="1" xr2:uid="{0BCE3D49-F98F-4CCF-A299-F30632248283}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,6 +23,125 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+  <si>
+    <t># YOLOv5 🚀 by Ultralytics, GPL-3.0 license</t>
+  </si>
+  <si>
+    <t># Parameters</t>
+  </si>
+  <si>
+    <t>nc: 1  # number of classes</t>
+  </si>
+  <si>
+    <t>depth_multiple: 0.33  # model depth multiple</t>
+  </si>
+  <si>
+    <t>width_multiple: 0.50  # layer channel multiple</t>
+  </si>
+  <si>
+    <t>anchors:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - [10,13, 16,30, 33,23]  # P3/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - [30,61, 62,45, 59,119]  # P4/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - [116,90, 156,198, 373,326]  # P5/32</t>
+  </si>
+  <si>
+    <t>backbone:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # [from, number, module, args]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [[-1, 1, Conv, [64, 6, 2, 2]],  # 0-P1/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [-1, 1, DualConv, [128,3, 2]],  # 1-P2/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [-1, 3, C3, [128]],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [-1, 1, DualConv, [256, 2]],  # 3-P3/8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [-1, 6, C3, [256]],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [-1, 1, DualConv, [512, 3,2]],  # 5-P4/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [-1, 9, C3, [512]],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [-1, 1, DualConv, [1024, 3,2]],  # 7-P5/32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [-1, 3, C3, [1024]],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [-1, 1, SPPF, [1024, 5]],  # 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ]</t>
+  </si>
+  <si>
+    <t># YOLOv5 v6.0 head</t>
+  </si>
+  <si>
+    <t>head:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  [[-1, 1, Conv, [512, 1, 1]],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [-1, 1, nn.Upsample, [None, 2, 'nearest']],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [[-1, 6], 1, Concat, [1]],  # cat backbone P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [-1, 3, C3, [512, False]],  # 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [-1, 1, Conv, [256, 1, 1]],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [[-1, 4], 1, Concat, [1]],  # cat backbone P3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [-1, 3, C3, [256, False]],  # 17 (P3/8-small)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [-1, 1, DualConv, [256,3, 2]],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [[-1, 14], 1, Concat, [1]],  # cat head P4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [-1, 3, C3, [512, False]],  # 20 (P4/16-medium)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [-1, 1, DualConv, [512, 3,2]],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [[-1, 10], 1, Concat, [1]],  # cat head P5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [-1, 3, C3, [1024, False]],  # 23 (P5/32-large)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   [[17, 20, 23], 1, Detect, [nc, anchors]],  # Detect(P3, P4, P5)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -176,288 +296,140 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>207066</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>464626</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>194952</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7981D52D-60C1-483A-9601-0CC138D01AB2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B319E2-645C-4469-888A-F0953518B999}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11830051" y="2295526"/>
-          <a:ext cx="771524" cy="352424"/>
+          <a:off x="16565" y="2609023"/>
+          <a:ext cx="8697539" cy="8154538"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" i="0" u="none" strike="noStrike">
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAdcAAAMCCAYAAAA76Ix0AAAAAXNSR0IArs4c6QAAAARnQU1BAACxjwv8YQUAAAAJcEhZcwAADsMAAA7DAcdvqGQAAOJ1SURBVHhe7P0LdFTXme+L/inbQSUhRJWF0ANJIOECBEiRwFGM6QiMHyQnSduNMTEdZ5B2c2J226Od7mH3iU9zR8bgNh7Hvp14D3sP3NvHCfu62x0be6Tbp3c2vjYvh9DGJqIlzCMKEnpE4iVXgYQo0XbCnd9cc9VLVaV6LIEE/5/HsmrNtWquRxX1X9+35vr+k36y+dtXnnvjOJLx6j/8Vzz6vb80c9FUNS6D17y28bfvQ0e/mYkiFyV1C4C2j3EqaJoU7vLbUYUjONJzSc0VqT4LEThwFAF3JRb4gI6WLoRXj1iu5kLv7Z9u1g2qbbhxquUcptXNwnDbEEpH9GGQ/suDONJ21jQAHt8yePwj9z96H0ciyxeUAr2t0cdGCCHkxsNl/mZMR2sPgoE2HDzQjN5AD44cSCSswhS4cRbnE4qPiK8vLNZ5eXAHgyNF0aawRgnaZOu1Whf+cwi63eY9sq0hDMvrnDzkWGtFI/2blzbDwctwu3PNXJgc92QEg/GFVQj2fIx2UXtCCCE3PFmLqwhU0K8iP/d0JYpJhFAoLIQ3jlgG+9X7SxuwpLEB7t42+IeVKKp2t1v1HbxorRTiLAIBL6pVxLykbAjtfZe16FnrKvETkZX3hET2LE715Vnr66kGHtMT+vvh9/is9rpKLbTBHhXh6n2x1l9QLkKbq8RVbWdIvyuMRL6hfpehGl2MWgkhhGDS9nd2XwEG0LptM7a3mdYYkqWFCSGEEBLNpHkLlyhxTQ7FlRBCCEmd7NPChBBCCImC4koIIYQ4DMWVEEIIcRiKKyGEEOIwFFdCCCHEYSiuhBBCiMNQXMeKwhos8RWZmauMbDuqCEaaXMt9J4SQ6wDX5i2bsMZn5sYbjXPw3a334El7en4OSs2i9ClClRYM9ddUYxpL4leXuhqo46sG2g/sw0E1JaqFnIxrt++EEHJ9MOmbm//1yiNV7Xjt2deRoEBT8iISTY/j6WI/AnX1qJD57h3Y9PJOvci3dhMeqZuqXw+2vIqQQcCir+H7y4FdL/4CLVZLfERcHwTefeoE+kxTxkgdYnenLvBfVXgOHQlFR8TXjYC/CNW6brFfCZUxEQgV+bcNCI4A5dPVfDnKPH709uWhzBTvHy6/XZdZ9Hqkj8sRBf3FeMCunxzRt7rA8Qeln4h2vU58xGCg2tRxjDJKkKjT24+DEWYECZHt1pabC43wNuObF0Tut0LqScs2ovoIH6dlZGDqPg/34IgxTohsD/Y1R5g1hPtObPxACCETA1fboXYMmplMya+rxvltT2HTMzvQXTEfTdKoRFeL9jPS/lRYWK8BIhZLqr1wS81gJQRe9TdhulRqEueUo9rdpSO/9oAXnkLVbtcs1kxR64gpgPrrUf0F29A77EWZeo9VvF9qEU+G131WGxkcUVcG3kLZnoiIOPpYUWWob0Ft0xtsHtkeBzmeUrPuwdYeuMtUJG7XOVbHqVaw0sLJInQtikXwt1r7cjAk5vHqKFuGClCiJ+se0fWc5Vyodl9kH+YCQvVd5bWOXbdHCKs4C9n7De90vX8eX7hvmSishJCJjstXX438wJmEUWtKdO83dYl7cX7QgyL1W9k0v1I1J4iGD/8CPx4tarWZMhsPmbTwdzcqgcuAQJuYAYhjT7MSQYnQRkuXqnVMhGoLTcgYQBABFnMB+avW7VM64c6R91xU6xvRlflYmzsxLlD/2SYC1ersaCERdx61f3Y0HWhLJjBF8Kgouc/ef9v1J9ilxaw9INFjtKjFw11YhGB7PHs8+8LBzAqFs1CmLiDsfcpRiujvl+1fUutNRllthBmCoPepXEXjkfdtczHNO9m6wJHjF2Fvs/ZPnIi81bejJOGVACGETCxcj9QF8L5J4447DpzATze+hxf09AkGauuxotEsSxGJlpZIylF+7BsbUJajxC1ZRCcRal+nieLCQiOCYkdzIkzacUdEMdCPgIis/LVt7kLzFrZdncfr1SlPO0KzU7dauMUuT8+NQkzfIaHXMyK8McKYgMjjiSK2f0X0PdjobciFwMED/fCIYIbE9Cw65Pj8hVpIqyQK165JliWhdfxhYRe7voMHjgCSYbgK98MJIWSscbVuewl7zYyT7D3WhYql6xB3rJTcc33ia6gzsynRmIepSrj8B8x8ilg+qyaaa/db4pYsoosXoeoI1giKpDxLRSwv6nX9YrcXY3MHJb6hFHJhDardPTilor5MvWJHINvRLyQtW45grzmeKKEdDRVFxksEyAWDeTmSGL/dEEpMxdfXzIXoP6pTyBo7wrbm4nAJp1ra4DdzhBAykXElspnLmr0v4f1APR7Z8jw2q+nptfPMgjSIHC28vhid2w6llkqOQgmjMWj3eJVwxovWQkjqUumAvY4IjYiCTn+adK66WugzgmFHfyFBNiIrYhlKf8rIXSPmaXnFJiLYhb6gROHSh/jfRqSQQ/s7OoGeHrirrf1Y0hiRkh0aQtC+Z2vaE/nt6nvZ5lh0mrdHInG5rxxuX+A9qy8sRIDj+epamQW7TZ1c+0KBEEImMMbPFeh+9ym8kiCEpeXcxCD+KF9CCCFXG/q5XgeEHm+xH48hhBByTWGFpusAa0DQPgorIYSMEyiuhBBCiMNQXAkhhBCHobgSQgghDkNxJYQQQhyG4koIIYQ4DMWVEEIIcRiHxXUlNmx53HLFSRffOjz9g5hyiU2PY/NjK82M08zDmh9Y1aNGbCPRdqVdrb9h1ANM0jfJkKLRfXjF6Sej2sRS1jHGfCBlpCJVzHvH2mw+Uf+J2o1jkq7xPBpjve+E3CCMb7P0MeU4tj/7FDa922XmU2DvS9o+L1ElqzAZ9J0WJVhtl4XcWp+8RnOU4fyykPFB6cZlpk1NWZnQSxGLGl0mUVvKpfIDngniKDRaacc0yj9GoU0FUq3JHEOces7RRgfOk6j/hNs1jkmpVO4a630n5EZh0ry/2HZl81J/5mbpikhTdKAL7z8jZgASvT2K2nxpG0Drts3Y3iZtdwMdHtTq9a118djzuFs7rYfR5RihIsX5frR66q1+IozYR6Ki5h/MV38rUYFDaA2o91RI/++j6AdrgLdl+2qxRJ/zj4X7iZqP3Gcbs+8lar37KsPz+mTFP56Q9sZuS5HQQL74TvzZmnJ0bv8Zdp22muKThxXPL4X3wHt4+y1LJB/ytOOFLafM8iQ8WI8nGwfxZoz5fN0z96AhsB8/3ZpqgeNIJOqbheGWo+rgaoC2RCbvYjIQ31j+VDDSLD1s2m55ztpG7Eoj4pqrh9e3/WKT2wnaRPahCFW3itO3iuYWuPvh9/pQJs4Det2L6rjFZUmvaLDWF3cfj3rt9UgvkUb5I/Goc5YTNOeib0j9tZyTOobUsY8w57f6GVHmMuY8aWQfxZVI/H0V4XOniHs8VgGS+CU0Zfv2sSY/HkKIhctX7FH/uLLwc1UCEjZF34Fu0+xbuwbT9ltG6Zu2tWP2ajvlW4laz37d/lqLB3c/thJ7X5Z1DmFw8FDIXD0UHVZUK2E0fdtG7InIV+K3/1W0oh6zAzvQarxlUyci4hQh1/tihFRHrarvEc7yI48nIb51uN+sK32drFqTftagsQSzcBL/roRVItg7atVPqicv9cgzMBQlrDYD5zIQVp1uNDZ+jctQrcSkOjZFGiKRsbyIWSWCxoP2iBLdUm1ooNojzNxlXcs5SNaPbzifuruQiIU68SPM3+P3LdGcu9SnTRIOHmiDXzV6tIuP9d6wjaCIvBgxAF73kI4Ww0b58ZB17XMxGWXeIbTbLkLGBMIi0mM3jtGDjkzDXsV6X0Qs+49ar9v96himmJUTHY8Qz0TCFnar3+THQwixydrPVcR5pCn6PNRVTUXFfea+4/p6hINBFfntsrbXdqgdg54Z8W3pbOIYsSemC21alLtw4I1e3TL2pH482pi+YpV1TrbERMinf4WfvDha1Bpmuk7rVsO/7RP0TMmHxISJCKWAle7vDkW4EgFbaeEV+ERHwWmjftQ7bHFRP+ASHVkCEwdtkxfHWD6vEN5AV9jbVf2yixC4yyvh7jti2uVH34+ARFOJDOfjCkMCEpm/J+xb7Zc6tuhozmKkL64IoYrujBF8csE36/bIubDeI+Gn9GelZ837olLPkUIbiWpPkNqOl+qNfzxx+paUeY4Y4lvnRFyObFN/QkhiXJveBe7OdBCSosRjp4NjkfSpFYXqKVHaOZuoeTwyyvFIKjh0TuyoOF2mzMYKSQVv3Ifd4m97cRDnrCVx6du6zxjOn8ac0D3aIex+yhjRtxXjyWdKdGvqSJSnfmxLJ8Mr1nXVXm2zl/Ceq9wPFRN2EQptxm6JwRX1w689cQ22EESJUsQ90USG85a4WNaCoxEtNmHz90R9h8RXiBI6EfRYMZLjsy8WRhF83Zfss73v4f4iRTtkzq9n7PMXg7QnuN8ctf+KhMcTp2/ZNvRFkzknSbyQCSFhXNh7DN1IN30a5lRgABXzrVRo02OrYN06PY6zgamYXZ/cw7XprnolRibCbDuDQL4X6f7Ej461L9N0xyuxQd83HYVT/tEj6jhEHU8c2k4HkF/VEL9fuef6xLdwV7GZT8SBU+i8GETLTisCLd1YjfJQqtdEo1kOUEoNY5Au9+skJRnoSTpoRgQtnrG8JEFDBvJuMaJXxxIVGUl6OHw/MZHhvO7PvEwdKz1s33eN33dYfPX6keb0OtLTL8LEpnOTCb6s6z+HYEgYrQuOROb89nviHmei9hEXAEmOJ04fdiaBEJIeNxWu2fDDB2b04f/3r4fxqWmM5Y+/8VW88287zFw0nx45i8J7HsLDX7sX0zt34Dd50zG07yPsPfgH1PzpQ3hg5b24S6bb/oDdBwex4I/uQG2j1VZ1YQf+3//jY9PTSeTftgZ3/4m1bM7n76EZX8Jd0/vV+06q5YXqvQuAYx/gaNwdrcLildPx6c4O5P1RldoH+Wut/4vhuXjgvjWq3yJ0tZzGDLf0WYUNW/4LHpgzDSiYE96mDPD99DOU/tHXcK86prtWfhmFPR/g87s34ck/vQMzJk/GjC+q9i9NR+++UyiOezzySFKcvvd+hD8s/A4eMMd418q5+MPOj6DHFE+pQP2CApw/+glORmfwYvgMnQNfwIr1i7H869VYkPc7vPn/6oZ1K/gLmH1vOYpxHkfeUxcI0iSDmJ5YhC+rdb/89Xx0bvsIHyr9l0FMD6+TNjUVnYnoIw2mlSE/2InAlVJUFgTR92ninGx+cRnQ34ffF8xCTrALgS+UqZ/5s0pIg8ifvxDVMytQOuP36DZp5eFJU1BdPRelM6eoaPIUbrnF6v/zgc/D66vJ4+rHuYHPgM8nI39WFSpNe87lbgQiNTqCzz+7BUVz5ql1S/B5VxuCuVdw/swFBOP1/VmB2q9iFOm2EtxytlldJKntadTx5s1F9RxZNgNX/H24pXgubh5st7btLkRpbuLz4r41+lzoben1z+OWAtNvwQC6z+YgH+es47ySC0/oOK1tXvxcdXZpEnLm+Kx9L5yEgDoeaQZuUederT9L1p+CoP8KvImOJ17fA0O4MnMh5un3qylvOOnnTAixmLT9n350JdlIYcE5P1cZXRsxcnfCc70dDxmBPPfp7Y9IP09wrrfjIWSc4kp4L3ScIo+yWAOCoqen1yZPQROSCaF09nXC9XY8hIxXJs1buOSKeZ0Q5yJXQggh5PqHtYUJIYQQh6G4EkIIIQ5DcSWEEEIchuJKCCGEOAzFlRBCCHGYsRXXUfxP5bGa0CM09HO9MRjnfqHirLNAGwdcRcQAISMf2lSQKlS3a0vAaBK1W844S1Lan8R9EHKj40pNLDIkZf/Ta8GN6OcaWRoxXLg/0uc1E9Lxc42u6zv+SN1Zx0Gk7GAmPrQpISUaI8sf2iRqBwLigJNSDeHEfRByo3PTl+9c/0P0m7J/CUhW/nDNDx7H9H2mhJ8gEeiaIvwq73/D5u9JyUGrfGC4ZKEpDbjyXtQVT8Z/njmEm//ob/DnTSWYPLkEdbosYGT5w5tQeM93dHlFq4SilEKMh/i5/m9Y/Edr8MAfTUfhQvWeP5HyggP40g82YsFZsw8SfX41P9zPrMgSixJx/g0ergmXLQzt/0L1vhHHI+t/CwvK7sPDf/oNtSyinKEQ1beFROtP6nXvxe2FPfjVEVOMV2oLf/dOeLpHK38oorgY7l++h58+34Huijn4+r2f4cNfJnjTTC/q55zHO395EO/9zw58aMoi1j2zHPNP7cfLPzyOD9234v57p6DbLpmYFrmYPnsahn93DjcXq7895+I6s9hIKb5QecAQYgJQHyo7qEvsXSrEggXTcNGU8RPhnltw3ioBGLX+FAR71TYl+lPr31ywCPN0OULTrvuPj0RoC/W6dhnFW+BR5+uWW8pQPacqqg/Z/hfnS5usb5UG/H3J7aj4wufwLLL2xe6jpO423PL76Vi4SMo3RpQojLff0vets5D/ea85tmRILeBS5N8qxzgFV1yzMG9+mVV2sep2eC6Z7Uh2YOYkq0yhlGAs+AznQuUQ7eO+VUWmbnhDx3Me+QsaTZnDyHMn0WmC44nTt0a2r9dVfbFcIrlBcWVbnelswCr6L6KhI+ASr1W8Pq7/qYjRKuBdyxXmtZYB3Uo/1zTI1s9VU4I55f1o1uboSqwbVbg5im1dXNLycxXiucTIj7c6CbHeqhLJ5eTBrosfdnIRgYrv54oc8Yu1HFyi2uMgAiOWcrbbi2UkLpHYZHjV5VFUH0osxGpNjAm0/6kU11fRmkS53mrjRdvaA3inK7mSPtR5KIv1c02836lHy6rvuJ640cX5o7IDcaJiHZmGLAJlf8T83PKn1SYMw+q8h1K9iY5HES/itssr6n4jvWIJubFw6J7rPNTJv6DiedrfNXD6uNU8gjJMwyHsTSdNTD/XuKTj5yoWdQ+ZtPB3N+aZRoUU9d+6FN4D+9FyMQ/edFPD6fi5auKkERN5q+IigvaPvBLxUrdxl0nkuSo/9MM9Ia9REZBEDj0idB53D47E1tfVzjriNSvt9oWAEv+yvJA/q14nwpYtaHvORglNHD9XJ3xozf6N8MTVlnXqr1ktUqwTpeGt9niCHuczknMSJ00cr2+x7VNXLvoYlzTKRVOy7wMh1y9Zi+sp9S9nWkmZ+jXbj/OehuSWcb4Z1/9V7Hjzcz1wAj/VXq4yfYKB2npzf7VQ/R3Em6rdMkofgl/6ShmJxNLwcxVihEmI/oGOtEO7pP5OhloMT3kR/EasEnmu6n7Evk3PjULI4i0GJZDo6zT7Z4tMtNhof1O9vyKKInQxIqaPcaSfqxM+tFrA5fyFzqMR1ajjkXMYFuso79YIpD2uoMd+RjHzkcI9sm/ZthJi+xjVlPgCh5DrG9fdFUDFfZmPahWPUs/8+Sry2omWgBeNVcB5y2p0JNqztRqSBdQp0roIo3X6uY69n2tjHqZqET2FEyr66VHCq9/3oA91SG64PpL0/Fw1Ig7m5Uis9LDtrSpof9Wy21EaNNGh3RbHzzX11KpBRMO8tImK5mJFRpD0sLqYsDDCZuZC2xeBDl0shIXZCR9a2b94nrjBiG16fHIO7YsBEXfdHEOidkXU/qtNhC4mFOr4q1XEfyoUcevWCCKyDYTc4NzkvXP9D2/+8Cn8f95ONFAo+YAmTJ6DO5tKcX7fB/jlpC9hVc0wDr/5ESbrgTux/qfv4L3Pa/Hwg2tw1xf/E7989wJmTukwg3ro5zomfq4yWvhvrXW//MUc/Mb4uZ75ZRA1T9yB+6S96hJ2/+VRnNB9pEEafq6aOH6hgUvxvVVlgIz2Xb11CB1t/aEBM/H9XK2BSJ+ftgcOjcLnqv+CRZhrBjNZg26uYPrsonAf6ti0x+rAeSU4xls1tx/tZ3Nws3iw5lai+pYBdOtjVsdltj/Cz9UM+InrFZumD20iT9xzF+xzqK6U+9Q59OZiWA9I+gy3FNhervZxyv5+ht+r91qDtmK2mTsdlZVWu+xj0F2OoqIS6/3eINp/fcJ81+L1fR4Xfz8N8+abwUxRg7kIubGY9L2Xdl/xHUv+eAldcRIhA7To5zpWeHy3I6dHBtuYBnKVkWyCukBt42dASLpMOMs5GZX8SGQ62SD3Mp97I9FAqrGC4joW6JG8Huh7lLxndy0pQlWdG6dSeuaVEBIJ/VwJIYQQh2FtYUIIIcRhKK6EEEKIw1BcCSGEEIehuBJCCCEOQ3ElhBBCHIbiSgghhDgMxZUQQghxGG2WnmldYUIIIYSMxKXdWV62LNMIIYQQkj1MCxNCCCEO49q8ZRPWpOutRgghhJCEuDa9G0Dt+sfRZBoIIYQQkh0u7D2GbjNDCCGEkOxx+dYuRcWgH6dMAyGEEEKyw/VIVTtee/Z10I6UEEIIcQbXJgorIYQQ4ih8FIcQQghxGIorIYQQ4jAUV0IIIcRhKK6EEEKIw1BcCSGEEIehuBJCCCEOMz7E1bcOT/9gHVjimBBCyPWA5edKYSOEEEIcY9K8hUuumNcJefUf/ise/d5fmrlYVmLDllWoMHODLa/iuTeOo+mxTSgKBFBbV6nbu999Cq/s1S/Vsudxt3mDbj+lItfVwMlAPWqlffBQqGpU5Lp23761m3A/2hGoq7e2273DeNLOw5ofPIrafGmM3iYWfQ3fXw7sevEXaDFNhBBCyFjgQFp4J14Rw3U97VCCd7dx2JmK2io/XpP2d7tQMX+lbhVhvBtKDM17QuKXX49px6TtVbSiGnUSSjc9HrGu9L0mZI+XX+dFm2nvrpivt+lbuwazO14160f0TQghhFxFdFr46bXzzGxmSHSp08sREazQvd+UVjzlx6BnBnwqsqyrAlp3SZQZg4pW92oxPI6zgamYVqL6nV+J7mP2ujuxV4Wc0i4MtrwPSztF3F/Sr9sOtQN1j2LzY5aQR3H4F/gxo1ZCCCFXAVdsRJg2El16DlkRqkSRpvma0PY6npP9ODZfi322Fw2EEEJIJrgk8mvrtiLFjAmcsSLUpvlRketIjqOlA6i9K05kGYdTgYFQOlnu7TbVAedT8cbb+5JORed7ykyDQu65PvE1qC4IIYSQMUWJ60r4KgZSE614iNl6xSorLTzfj9ZB056Atje2o9Vj1lfTBusGbVza3tiM92Gvuwp4dzO2J7Hwkfu5dr+b7wPe14OcCCGEkKvLpO3v7L4SNao2DslHCxNCCCEkEhdH1RJCCCHOwvKHhBBCiMNQXAkhhBCHobgSQgghDkNxJYQQQhyG4koIIYQ4DMWVEEIIcRiKKyGEEOIw419cddnCDXpavci0kXFD3QPWZ/P9J76Fu4pN4zjG41uGqkIzQwghY4Su0AQMoHVb4tKC17RCk4jrnE78+OdHTYNF3TP3YEW59bpn53t4+y3rtWAt68fujYeSuuCUblyGh2rd+vWF1v346dYh/VrzYD2eXFk4ou8RNM7Bd9fPRoG8vngSbz51An3qZeT+jeg7DpHro+cTvLAlXI8yteMpweqtC2F3Adjr52HF80tRN8VqHfV4NOY9CB9P0nOFGbhr/Qpgx8+w67RpSpsiVPmADvUdrKpz41RLF4JmSSzu8tuxoHSymQP87fvQ0W8JZ7XHNAbacLDtrJkxFNZgibfftOeipK4BZTnWorjrE0JIhmhXnG4EcDZJzd5xhxK0BigB2vgeXtjZj3I1X2oWiSiuUKLQctHMJ6QEd1SdxpvSx7aTQK0voqi/EqqVQEtrop/3MHUri9G5TfWxcb8Sstm440HVqPfB7J+amj1qvtFaPy5R66t+PMXhfUn5eAQRVGubLxghLt1Yj1kd+0N9+xvrRzUvsN5zEj1mPvm5cojCQriD6iDdSsD95xIKq4jiNC/Q27oPBw+oqd0Pb1klRPYDbabtQBv8nkLYOmuhxLsaaDcC6vE1wOtvttZv7UFwxPqEEJI5Lt/apfCEvFEnCAdO4Kd2ZNcziAvWKyuKbBzEmxFRX2JO4W0TleHAkIrdbSRqq4Z/2yH8xrQko2XLPuw+IK+G4A/ophhKMKfcDW84pByJHEO5EdTGEszCIM7p1+kcTwpI31Py4B1F6B/ytMdEponOlTNIxLmk2gt3aQOW1JbDq/4uKM81S2OZAnfOEIaN+nq8XgRjxVgJtTfQry4Zw7jLlQD3dUa3uSWcVxGsT304McsIISQbXE11ARx447iZnXjUrZyNASW2fSKKD+aj2RaBNCjdWI2prW2hSM+rohlLMNNAomnPSfy7pFzfUn15FuLJrfeoqViJp7VKQuRiYdsgGmR9Ffm+q48hk+MpxAq9TTU9Y3kI9m1tx0DtUqtN9TeQNAJWEfsoYh55rpwi0KYizeEeHDnQjN5hP9rV+T/Sc8ksjUFFtupSBdWNSpDVVI220LqSLpa2JWVDOBKZ4nVXosp7Fh0RfeptenxqfSuCTbg9QgjJgEnbX/qbK5tGsWZz9J5r8Rl8aU0PrFtdXhx/sQpJ73QluOcqyL3IhoC5/6ciLrlHGsto9xj1vUQVqVn3OGPvWxpi7oGOQCLM9UoIE9wTrXtmGbw7kwi27LuImgipPg5gt/pIVmRwPBbWPVPvgdh1pd0H/1Px9zPyvmqYIFq2Wfsefa4iyfyea+z9U40IbaJ7rlH3TRMQs47Hdztyej7GKbtDJbYLavPQd+Coilate6/uXuu+LSGEOMFN83Iu//Dop2YuAX/8ja/inX/bYeay5OIU9H5Uii49eZB8mI9ixm24w3seHx7XiVKDiMRyzD8VMbDm6Gl8+D87zHQG7uVuHPvLX2G30eTS5d/Cn39jIXK7P8FJE72JOH/d/ZsIsbiIY6E+OtBdUYqpn+zBT//BvEGEfu1ylAWbccz+bRcx/JPJ+PcEwiqC9PXS0/jgp35YVrc1WP3E/VhVNhw6ptKmOZgZ+C1+efAzdRyDat8r4P7wI/zsH9I7njCFWPwn+fB/0I3OXtOkqHtmOb483IF//WX84xk82B069g//ZxBly4fw7l/+Bw6rPkaeq0imYPYXZwMn4u1Lcj4f6EMwbwaCv/0Qbeq7kRP4NY6cvIDPzfJY3LfOws2Dv0UgSaDpmTkX7mAXzg2o86mEdqH7FNrOhL9p7hIfPKqPblkOD4pm3apC2e6kfRJCSDq4kpmPj1se9OnRrwV2ulNNq2UgURL6jvfgAvLhmW4aJI0rIWq5nb69B9/dmGctS8ThTnSrPwW3zrDmReQbJbqMSMc+L4OrJAK25h+SgUBRqd2jOPE79afAExqEFZW63boUdYH2UdPSI44nYptPqugbdqQsUbVp14OmIsVxxPEkIJNzlTK5yMFZnFdRpcebh2DSqy1rMNOIdSQSNWlimUrVxYKV5o0exGQT7Ffzcn9Xr++Du6+ZUSshxFEmzVu45Ip5nZDx+ChO+kjEWIvA9mweF5H05zfh+fUrePuwacoAiTrXelqzPKbxczzOPIrjPDJQyuNnupcQcvWZGBWaZt6ZVREJEbPvP3EnsCeLH38R+Se+iVmd72QhRCKIG7B2Vg/eyEJYx8/xwBSR+Cbq8k3DOEIezaGwEkKuBeM/ciWEEEImGKwtTAghhDgMxZUQQghxGIorIYQQ4jAUV0IIIcRhKK6EEEKIw4x/cdWPjNDP9frAehRJf57r7ww7GY1XpDhFneW4Qwgh6aD9XAdbXsVzSYr3j9siEqaesF1vN7Y27qg+qrom8GwURPiwhojpO7JNSNp3xHo2up8esz3TFun/Gp/oWsfWvsSpfzxa7WN7fyLWi3+upqbftxB7ruzzqhfG8aEtvhN/tgrYse1XaZgSROMur8G0/qM4X3g7SoIfJ3metQhVjT54zVxs3WK7trHtCRtGag4vANrsmsS2/6sYC0hNYptIX9jYZYSQGxXt5xqouxtNpmHioEQmjueqiITtozqqsIoDzc54v8px+hYBkeL6qfT91qHQPmh/1otB+G1nHBFUe9kojjd1z0gZQ7PutpOY6hOnm1N4O9T3e3hT7eOFQBITONlv32m9Xiwjz1WafWtiz5W4+dget2oStx/j0OMcVhlEsZ3LcQ8hkKxQhLafazM+r83oVZcOJea6Rwur+yx6hy+PKKnoLl8Ar/+IJay6vKIS2t4eBIeHMGytohDhtor+W/1TWAkhFi40zUfFoF/9rE4kpHB/6p6rcRGbt7jiFr/vOl8eWt5KLoZxkTrIKdQKjse5QBDlWlBVpNlQDIwQuhLcUTuE5tGEfrTIMy4p9J3C5yD7XeDJcy4FrIVOIkXLdq7aI39rEhqdu915CIoJu56ZDq+KPLUYF9YoYe3CwbYg3Ka2cZgilJQOoc+2oQt24cgBFcGq43UHgxFRr3jEsi4xIWQkrs3zj2HTs69jItXvT+a5Gi7mvwwrkpmCJyB+33nwyq93g4oC0ypcL4X9lSjvjBC3KbPxUIp99G3dhzcD1Xrd+3BoRLScrbdqsnOVSt/xz9WQmh9C3XrrGO/zDIXN7J1ACV1H32Wdxj3Y7kdQiVuyiDHHPdkyYZci/bVF8LeqdSMt6cQfNkIwBY/PB7SP7FMbs9tCraPniL7VVBV9J4AQcgMz6Xsv7b5yt+cQXksisOPLzzXOPUch9t6gncYdJfUavV6ivn+LFs9tKgK1tyHrFeNEApu5ECYlGz9ylD4k6ot/kSBE+tXK62hXmxT3wZDYi1Ux4lyl0neicxXzOUj6feUQfhrZlvE915j7p4aR90ttYu+bCpH3SCOQ1LEWWxUZlwejzdY1sX3JvhQiYAt7wvcRQm5EXHtffhWtqEfT1brpenoGPnpxCT7Q0yjCGpeR9wVlIE2saJROV1FhYCj0420Vu/8W7io2DXFJ1Hcn/IFgOAJV0ejUi4OwHWbj9x0nao1E+lBRnj8krGYk7QM1Zl6i5SA6m61otWXnSVyISK/GjyzFnSb9kbgjzlVKfafyOSgBXj8bA20JzkHanEVHaw+C+h5qM3oDPTiiIufEadkpcVK+l3Cqxb5Hug/tShl1FKxFUQmoT0W3PfG+laqvnCF9nzcennJ1mRGKagkhNzouoAzT8gdw3qnfv2uIRGdWmtP4qEb80Cf0P5VRtCZVm8wTtmVLO7wm1fnk+mJ0Rtx/Hdm37Ev9yHutEsWZ/dN9bIuMDGN9XqPTq0+KSB0w21T93Bf3fugZHO8cBPILENoVs009Mlj7sVop4ITnKp2+ExDu2xqQFRpt7QR5eQj6lfjJ/VNEp3NHIIOZYlK+0eQixx0ezBQ1iCmERKiW76tX/Sf3ea3071mc6svT85ISDnvIEkKIeRSn+92n8Mpe0xIH+rmOhjN9O+LzKudr8QW8kcVjLglxqm8HHsVxHEnr+oCOiMd0CCEkUyaGWfryMv2ye09mpt5atBblZ/z+ZDjTt4jznagYPJqFcFnG53X5vdj14i9Sug+bOk71bY5TXmZ1rIQQMr6hnyshhBDiMKwtTAghhDgMxZUQQghxGIorIYQQ4jAUV0IIIcRhKK6EEEKIw1BcCSGEEIcZ/+Iqz7nSLJ2MiikfOVGM2HXlp8RuPoSQic2k7e/865XWbZuxPYktzrir0CQl/UJm3EG0RBS/1wXuyxE27tZEFpmPY94dixSyjzEX19jtiozNxeP1neh4otpH2+/oQvrRx68w241sj3+uEmDvS4zBu92HYPUjNnRLUTfFatOMagpvvyfys4w1Bog4/kSfj3BVjdhjTQBss/RE7WE8vmXw+E1dZHHpqbbtCCLWlapRteXQlva2sQAhZELg2rStHbNXr4PPNEwIxIvVLhq/cwh1D87RkYr80M9pE3NyazUL+eEOm46/2armk5l3yw93PHNxaR9hlu6QcXnc41H7mZbpeMS+iLH6ynrUmSVaqGLM3+OfqwSIsMYzllftDeLUo/e7H+VqvlRqIj9l9sO0R5oCjEQ+n3rgrU9g+8mHEUG1+4oQ1gTm786QhhG7rm9smQdYJgBelJbnqgVS5F9E0jYIiBZWEdNqtIVFWwl52EjAC4++fhMTgTz06fY2+D2VKNEqSwiZCLjQ1oyT6p963YRS1xjMj3fLljgRWGMJZqkj/HfdLgbg6hcqmXl3AnPx0c3SHTQujyNGaZuOh1x7RLxGGprHPVeJSGQsL+328fQMxvFtVdtO5gykETFObLs3gozN31MgTSN2MREIe8EWweO5DH//JdWPG26lylGCGkKJZlkeeuM670gfxsxdu/fYEazqT52nRI48hJDxhwtNd6M238xNIELOKyoi253Cj+10vb6IjIqQpuSP6uwSzehm6dkal488ngxMxyWqkz4iXHuSGcs7Sd3KCNcemwd9I52B0qIQK8z5fjJp1O4QaRqxu93qO+DxGbN0MVg3Xq8iuqH2aHGO67yjRV3WrURQzNxNs0URqmrLEYxj3k4IGb+4Ns/3o3XQzF0NxCz9iYP4ip461E9HZvRt3WfShacxZ2tkCjQOU2ZjhRiFbzQiE+HFmjpu1HlOm21+goFaJRxmSUpR6yjEPR6J0kxa9Kc71YeUNL2qCK1/SAmbWMtZkXr5SkugxHZOv3ZYqCTFLKbu0ZFwKlFrMiJT7vvR4lmY1BIweyxruQWlk+GtVkJX7YW7tMHYy8Unxz3ZEmKT0o2X5j3Sl2dSxUIRSrxn0RFrTadE3Uotd8FdGyHGWnRFtJN51hJCxiOuTS+fwbT8AM4mGdDkKFmbpafJgVPovBg2OpcIszwkUqmaiw8lN0t30Lg8PiUjTMezM39PLnip9S1IytkSVusedASJolYz+ju9kd9T4Z0ShH/kTVkHSdeIXbxg7RRuIpSYKrEOBi0x9fiUUPYmsbQT/9nhIQzr1zVYUmvdc6WwEjLxmPS9l3ZfaQy8iufeOG6aRjLuRgtL+tOM2o0cXSupVW0KbmOPUo0cdRszctWyjBsIW6lFrqux+48cvRoxqlWvn4/mOCN5U+67fPTjGTGiV0bFrqnBBdvqLqbveCOApb87zu3T7QnPlbyO7VvEPWZUtO4fkfttYW1X1pcUvDlHUVi2cwWH38FP9pzRLZEjjjV6FDDij35O+PmY2WxGCytBq8JRdAypiLE8iCPJRucm8n+NHOGLy+htNaliEUtvf8yI35hRxcNK0KW/qD4sJEVNM3ZCJg6TfrL521eSCatwfZilJ0D6H+/m4nFxxqA9PmPZt+UN6/m18966mvFoxK5TzoUIJLl/Swi5vnCNJqzjgpl3jkERCZO2XQ7scvyHeCz7tiLi76voD3ucF7+x7NtKCX8TszrfGQNhNUUkVMQdjmrHC2fRQWEl5IaCZumEEEKIw7C2MCGEEOIwFFdCCCHEYSiuhBBCiMNQXAkhhBCHobgSQgghDkNxJYQQQhzGtXnLJqyZyI44hBBCyDjD8nNd/ziaTAMhhBBCssOFEi/yUQkf1ZUQQghxBNfmpX60dps5QgghhGSNa9Ozr4+97RshhBByA+EC5qEo5M5MCCGEkGxxoelu1OZ3oW2vaSGEEEJIVrg23+dB67aXQG0lhBBCnMG16ZnN2N5m5gghhBCSNazQRAghhDgMxZUQQghxGIorIYQQ4jAUV0IIIcRhKK6EEEKIw1BcCSGEEIehuBJCCCEOQ3GNg7v8diwozzVzGeKuxIK6SrjNrI0jfRNCCBnXuJ5eO8+8zA53eQ1KlJKIeFQVmsY4eHzLosVFRKjxdvXeXJTULcOSRmsK9ZFApFBYE1p3SbzlUUT3vaSxBsnKKee4JyMYvGTmMiQvD/CfQ9DM2jjSNyGEkHHNTX98V+0Pf3Wk38zG54+/8VW88287zFw8cjF99jQM/+4cbi5Wf3vOYdgsiWX40iQUzczDxTMX8DmKULW4DIOtRwBfA7z+ZrQcbUeffxJKVX96nWllqLxlAN2fDpkeFCKs1UD7gV+jo7cbwYJFmD6pG8O33o65BedxbuAztZII6heRP9CHi597UDRrEvrM+n29ifdP3ueZORm33DIX1XMqUDpzCoJmfblw+OL8KtUm7TNwxS99qwWyP4vmWu2FkxBQ+33LrbOQoxaVzl+EytC6qfXtcfXrY5C2ii98Ds+ielRHtFvH1oh5s2L2gxBCyLgg+7SwjjwbUJbjRbWKCqs98jdJZBg8B78S1Wkq1PT4fEohP8apvFkoC7bhSI+J6IJBBHPytDi53Xnw+yNN8ZSwlOWht/UoAqZlOHhZrZer3hYhwJgCd86QWqZeut1wB/pD6ydH3ueFF204eGAf2gNeeCSKVgK6wHsWR1TbwQNt6hhM3yGhl3Y1tXTpaFUiVG9pnhL0fTjSB3gLJVqP37dOFbu7rPervoOls/T5031UVyLYqtpbe1Qn01WELsK6AGizthfumxBCyHghe3ENdqGj7zL87erHvt2PYF+z+tEPC99ILuG8HyirXYbSYDM6VNA8UkAVw0q8lJBM86pNRGqmCBTO4nxMvlWnWofUiu4pVkNhIby2oOblwe3xpZQS1kI83IMjbXEEvc0Szkix9nijhd6iCB7PZatdXXxUlQL+frV/CfqWY+ztsdsuIjisLixMnjvYdwSnZKNyDHLR4Z4Ob85kff7keETwO+yLEkIIIeOCrMW1Sn7gSyXCUj/21V64SxuS3nMVgv1nlYD0hERBIrRI3OWV8IqQREafNiJQ5qVFEUqUeGkB1uJjLdeiZwtW/1ETFUqkl4fSZAOKou6V5qp9u6z6jt4Pd2GR2tZFszxm/wQtokNw+9Q5UcF5xwEVnRuBjNt31MWCvS1Z7kefOUdyARJU29Tb1hcw1vHYkTIhhJDxQ9bi2tHag2BA0pzN6A2oqEz94Es0mhQ7CjOzgqR1rRdWpKeF0YjUiPujJmUsSGrZG+iyxEuiPvmr+vAETcQXhQhx8gFFHq83tNxdvgBlKjKP6kfSw6qPMOEoM4Q+vn50tLTBn2OlwIWEfcccj7uvU0XCIrrhY7cHQknq221H54QQQsYl2Q9omlaG/KASgyulqCwIoi9y4FEC3LfOws2Dv0XAaNzwp8PIn79QD9opnZGDs60m0pPBTEXFKNIDiNSUN4y+M3246JqFuWbwj3dYCXsozfoZbrl1EeYWD6CjrR96jI/cE14sg4qsAUT+1g/RM6BXjoMMOCrBjCJre0W3nMKRo32qH3VMeWYQUm4/2s/m4GYljIFLn+Hi76dh3nwzmMkMUJoUOr4hBC7L8umqfQg5Cfoejjged6DZuvdcWInq0EAu2S8vPj+tjn1gCFdmLjSDmdQk5ySFc04IIeTqMWn7O7uvAANo3ZbY1/XVf/ivePR7f2nmCCGEEJKMSfMWLlHimhyKKyGEEJI62Y8WJoQQQkgUFFdCCCHEYSiuhBBCiMNQXAkhhBCHobgSQgghDkNxJYQQQhwme3FtehybH1tpZjJlJTZseRxNZi6EI30TQgghVxfX5i2bsMZn5gghhBCSNTddrnn4h/feORO9+w7jU9MYS9Lyh7O+hLum34TCe76Dh792L+667Q/YffCkFXV+bw3uWqnaVn4ZhT0f4KjZQNNjz+PP/0Ta78Wcz99Dc1cVFq+cjk93foQuHcX+F9xd2INfXayK37dZ54GYvpse24QvVdfi4T+1tmv1LVuMXH8u/qC3Y1H3wAasmz+MD4+fMy2EEEJIdrjaDrVj0MxkTEU18PZT2PTMq2j1LLUi4b0vqXlpU9O7AdTeZaV3fWs34W7sCC17Za9uNszDmh+sAt59Cs+9cdxqitN302PWOqG+V6+DFXxPRW2VH6/p9i5UzLe22fTYUpzfZq8P3M1UMyGEkDHE5auvRn7gDBKUFU6N7v2mLvFxnA1MxbQSeS3R4vPYLNN9ldKgmIe6KqB1104zH0kl7t7yKKbtjxHcEX2vhK+iC232OnvfRyu80JtUdO9/3TqWU34MemYo0ZX1leiuj90Xi5afv4If//yomSOEEEKyx/VIXQDvvxxP7LJDoktPy6smWrSTsMnoQnc34CmeZ+adpAvvy37Y0xgcLyGEEGLjat32EqIys1kRHVUGTlup3ab5drR4HC0dCKWIY2l7+VWcrHoUG0YMGxbsvntxfrASPnudprtRCz9OmdmRxKwfg9xz/f4DNWaOEEIIyR5XIpu5tKhYZaVct8i9UEus9x7rQsV9VirWFzgUuq/b9sZ2tHrs9Z+PEdLj2P7sDkC97+m1JoId0Xd4Hd1+H/D+syYVHBe1/tuH4LHXV1Oob0IIIWQMMH6uQPe7sYOLwtByjhBCCEkd+rkSQgghDsPyh4QQQojDUFwJIYQQh6G4EkIIIQ5DcSWEEEIchuJKCCGEOAzFlRBCCHEYiishhBDiMBNDXAtrsKRxmZ6qCk2bJhcldVb7ksYaeEzrxEOO43aUuM3suEf2d5Tz7a7EgrpKTJhDisDjux6+U4SQa8k1MksvQpWvyPqbwg+wx+uFv30fDh7Yh45+06hwly+A19+s2w8eOIqAaZ94TIE7ZwjDQTM73nFPhxdqf81sXPLy4A4GMVEOKZJAm/o+tfYgGOifwN8pQsi15KbD3lU/fPi+OZmbpWdCYSVKcRbnPiuAZ9I5nBv4zCyIRy48M734/HQfLn5umjS5mD67CMGernC7REsLpuHmgkWYN6cCpTOnINh7TouARCMLdVsFci53I3ClElUl0+CZvwjVeZNwZaZ6T/EkBM5cQNRmRsFdfjsqvvA5PIvqUa369rj69fF4fLfDc8nss0TeMyehb5La5q25KFXbLHJNQr7e9jD6LrlR+oUv4OY5c3UfpdL26VCo/y/Or9L7He57GUpzJ+l+KiPa08HjU1FZ7izMm1+GK65p6u9c67xcinOuVJu+EGq0jrF0RgFuGTyD7k+vqAj2NtxyxjrHsq9zC87rfXHfOgv5n/eO2K94x5MukX2UzpyBK351nm9J7bMPt0ccj5rCx2mYVqbWUN/RDPaPEEJcvmKPulTP0s81DXTKrdoLd2kDltSWw6v+LijPNUvjoaI69SN3PiIE0n00NqAsZzLKaq0UXihdnKP6DFrRbHvAC49q12Jk2iQicZepaFlFVt5SJc7tKkLxlMPd2wa/6SIdctyT4a2uRLDV6hve6Wp/c1V7OBJ1u/MQDF7Uf72leehr96vjN9uWFSTK83gBHZ2r/VA7LelIEZEqHAntt9W3he4nTntqyP55UebuUudInUPvENr7Luslcc+VTgP7zP7twxG1rhyP9dmEI1g5F8GgpVCRr22SHU/KqAuVBd6zOCJ9yLmS7dvfjTifvWyzWn277W0Gh6399fjCxyNTZEZEsD6z6P0nhJBUGTM/10QE2tQP4nCP+nFsRu+wH+3qh+1IT5IfMbd7RHoxnLYzP5r2j6OIlOq7w/Qn63X0F8Hj8aPP3ob0lZOHqerHE4EunIJ6j+qnY2jkdlIl2HcEp+SNoVRofNHRf/s6MSw/3PIetW0Y0Q32Ncf8wOdimneydREi9/9qi+Bv61J9izAC/naTBg924UiLtKeDpKEvo7fnoupL/VX9isoFh+Kfq5zCWSgLqnNk9k9vv1+tE/XZyH4p0dUBd+Rrm0THkw5K5Mvy9P7q98n27dRtgs++pFRdOLSd1W2yDvzn9HuHg5fVRVGi+9yyr3I+zCwhhKSJa9O7wN1bHkcCu1NHkShiSaMPXhVhLNCRpxfVo91zlR9EHSVF4y4sGtGuRcr8eIaI/AEWZF5FL1BC5/ef1e+Rv4m2kxwRkbAYWdGO6iNKdESwRGgswRFRssXJjo5CYiWY/RvW9zXlIsSOrj62BFwLox/qkDJHb0OyAXZWQPZNLgbin6sr9nFp5HhMtBh5zmR/Q/eN7X71EouEx5MOcuz2NlSXEd+BhJ+9iVQtYfbq8y0Eez5W+3AEkCzIiO9g9HYIISRdXNh7DN3woOgqDGqSH7T2gIqUJIXa7rcGKY0SdclgpnjpuXhpx3htGvmR1S/UD6yvXN9zcylRFIESYZMIxRY6jdy7bUxl9K6IiP3jHbH9CNGR9KMe/BMrZOqgrW1HiFVo/9Q5saNG3UsEUYIRi9xHjB1RHQc7gpO+YiPtEeeqC1bCWFBtdXI8FuFzZq0b2q9QHxEkOh5NivsdiaSHSyebmSSfvUEGv5WpaD06Gr2EUy1xbgfI/kdeZBBCSJq40DQfFYPtUL8xVwElLCai8XjVD/OoaTcrMhwZpVlRYGzacWSbItiFvqBEytZ9WnevpAttMYkVOvOeVCkshDdeWnRI/c+kPz1+8+M9QsjMttWcW8lVtdk/Gf1spV/P4lRfnmmXyTwWooQxHBVnRkgU7YsAe9/iniu1Sr+K7PXxSJuk9S0RDaqD9VbLuguAXnP/WNBCavdji2aC40mLswgEzLkqs+4T2+Ie/7M/p869tR8L3GfRK/utdtLKoNj7oa4q5WLGvEUTGZETQkgGTNr+Tz+68tqzrycd0HTt/FzlUR23ii5ifvwkslS/iR1p32tMkbHuf8yQCLAQgQn3WNJV2O80PlMZ1OXxm/v4hBCSAa5NowjrNUUiKhMBWSOKrfRhZoNhUkOPRK7NQ98EE1YrGpNRyxNLWMd0vyOKj6TynbEj2mp9j9w0EkJIBkyat3DJFfM6IdcuciWEEEImHqwtTAghhDgMxZUQQghxGIorIYQQ4jAUV0IIIcRhKK6EEEKIw1yD0cIzcNf6b6IuX70cPIo3tv0KfdJcfCf+bE0NCtTLC4ffwU/2nJFW4gSLvobvLy/TL7v3vIK3D+uX14AarH7iTlTIywSfPX73K/z450fl1XXORH0mmRCSCpO2v7P7Sve7T+GVvaYlDs6L6wpgx8+w67RpEuQHdpVqtn9wR+PBejy5shDo+QQvbDllGtOkcQ6+u342Ci6exJtPnUhtuzH41m7CI3VTzZwSr1HO5TVBxHVO50jRss+h4kLrfvx0q/1wZx5WPL8UdcjwvNjnVc8E0bJtH3Yf0DMWiT7rRPuZNUrIpIBEG+IXJYlCRM8u8SjGEsnET8pBSo1sMxu1vulHTCribC+6UEVkP6NtkxAyEXB1d5tXEwkRBd9pvNmaRZkHEYAHgXd3Zl+GRwR10zPWZAuriO7mLc9b02MrrUbBtw5P2+0/WAf1mw80PR6xzjys+YFtYC+vzbpq2uCku4Kcw8ZBvLnxPbygprCwAqUb6zGr4yR6zHzaHDiBn5p+X9g5hLoH56DULLomFBbCbco82q448bFqJ4et9fJQqouXJCDGjEBs7vT6uniFikrb/VYpSLN6CLVcbPDsClBS91hKTUb1QQiZ0LjGbXWmZLx1KPNo1UYEIMNodVSUgN5f1Y7XtOC+ilbPKiOMK7FhfTVObjNiPEp1LN/aNZjd8eoI4XaCOl8eWt6Kc/xKdB/ytEeJbdYEhsbmPKeArriVqn9wpLWeuxJVpZOVHk+xlsUjqs6z5X6k3Y36jyqhPGpZC46oUawEXGzzeowNnkIMLewIVte4TmJAQAiZGHBAkwNU3GdHl1bE6auvBjqajXAex/b9XfAUz1MR6nxUdO/H9hSvaNoOtSsVfDQ68nWEPHilan6Dil633qOn727MUw0lWC3RbLYXLorSjcusvtWu73agv0xJxz9YDA38/osqelWCLGlkFXmOFMcwsr5Sb1NiUSLeSBs9y782ViglSvX6jf9vDB5fQ5RvLiFk4jLuxbXogYP4yhPW9KXlYfOz8UQ4Lbw5ZeFMibbX8Zz0e2y+Fu+n1yqBdgw36jynrdTtxk8wUOvDVzZWo3zKbDykBXeheb0MKxrNW9Kgb+s+0/dpzNlajzrTfjVJ1z9YbOu81QvUebesEHMi7A51BGzqFNuRr6yvbRNNWjhaFKfE8d0tQon3bMjQPYyko5fpVPFB29idEDKhcd1dYSIvx6MjZzj78yX44EVr+mhP2L8zITIo5okNWL3IzGeEjGrdgO8/UGPm06PtdAD5VQ3W/VS5b7q0EoHTx6G9cyuWmvupEZzyY9AzQ68vqeBaGUkdyd6XsOndLuR7rBG/Qunyb6nj/BbuKjYNaTEEfyCIlp0momzMw9SLgzgREkRLcHtkoNdGezCSDERT52T9nVfx/ml228zEPzjYZ6JKuS/q7sEpI44BEVwjolbkKyncJKb1YjoR47sr3r4j7O30wCfL3o/CSsj1g+v9bhN5vbzTNE0AZDCSiq4eqlUxSPlCFWVFRFeHOyFjtApunWHNJ6QEq3XaslAFGVa0tvpBswhHceJ36k+BJzMhUWL4Wkc1HtGp4kf1fVPrfulOvPJuALXrTRrZHtDU1oyTqNfrP+JpR+ugNIrQRgyKug94P+Iz6jvegwvIh2e6aUiTli3t8K63UsJPri9GZ7z7r1GcwfFOtWP5BRh1kzJYSke/MlXDv+0QWsyi9Ehjm3FRApiGf7CkkIPGh1f8YuON8g2hBzNFi6dGG+2r99eWG0cnY7ofM4jJwhpAJSOTLV9cNSWJrAkhE4dJ33tp9xXfsQn4KE5CrOdoPb/O7nlOiQzXelrH8TOXEl3XIrA95jzGw6lHXKSfxRfCz6dmSjqP4ji1zWsKn2kl5EbDtffla/FcZj7q1sRJ9+XXYO0TG/Bny0eLOhOgU8LfxKzOd7IQVislvHZWD94Yp8JqpYTvBPakIKw2M+/MIl1u0rPLgV1ZiZxJt9sFI2xEbKXdFLqwcGqb44Gz6KCwEnJDQT9XQgghxGH4KA4hhBDiMBRXQgghxGEoroQQQojDUFwJIYQQh6G4EkIIIQ5DcSWEEEIcZvw8iiPPOtIsPTtukHNY98AG3DVTXg2iJVREI4ER+3VOtC8sIWS8oM3S0b0jafnDqyauE9As3fJcfTRcD3iUczmmJDqHcc+VlH9ciHL9uh+7N5oShaMZnaeCE30oxFlHl7hURJu5C2Nd6Wsk7vIaTOs/ivOFt6MkaNvEJSK5WXokYjCwoDRcN1tqIOu+pZSilFGUxkCcov7iG+vtj2q3+wr1QQi5Jri0m8tEqissiFiME7P0pseUsAaUoBrPVftcxjVLb3ocT69dhw0x7U2PRRuhx85nRYJzVbqxGthpFenf3VOIBm05l4cVDxajc5sp3r9zCLMapD1NHDFLL8EdVWq/pY9tJ4Fa3zVx1gkjFnLAsDqNOe6hxAX7hdHM0qOw+u0VcwExBlDv8ZZJfeFclPjy0KfNAtrg91RaNYpDKPFWH2F7rLC6z6J3+PKodZQJIWPLxLznOm7M0lfCV9EVVVBfk9AsHcivq8Z5bZa+A90V8yHNe491oWK+7Upk9dnmVEnKBOdKLOHefst6fS5g//yLW447JKh1vkIMnHPgVzojs/RTeNv+fA4MYUC3XSN0MX5jWde4DNUe+VsDscSNS1Kz9FjEmm5Ii7bgEZs7/zklyJdwqsWUTBSHHTEJiFBpd7kS4L7OcElFJegL3F0qig2qdS2zAkLItcNlG3yTDPDNgGfQr2QgmoRm6ULILL0X5wc9KJJzr63oLKG1DNWP4eqVe1YRYu0Qmk3KtWXLe2j2LNWONnPa3gsJcLo4aZYuUfbU1rYMnXUcINiFjr7LlmWdGKj3NWvxTF4rOL5Z+gi0cFqiLa444pwTbeauItTacgTbI7anxL4q0hc2Mj0s/Y0aLRNCxhrXJm2B9rj1wz4OGfdm6fleJU/ZshNt3ZXwqQ/BV+xB97GrlaaX+66RlnB5WPG8JaovbNwPf+M9+K5OF6ePU2bp+r6rpz3mfuvVRO6dLtP3MbUtXLUX7tIGVBWaxQkZaZZumbcbazlfkdWYlwe33E81XrFR91V1xKyuvmLun3rKi+Bvs+/j5qKkzCsjm6x+5R6tvLb7J4RcE1w6ajIz45FxbZYuPqyDlWhca6JSQ0Kz9CTs3XUIKF6JOiUkeyPDVkeOJw7aE1eENXKw0VR4p/TjhI5Wh1R7Pwo8U/WSkEtNtmbpaRxP3TP3aGHN9hZAdsbyKkJs7UFQC2AzegM9OKJEcNTBQnHM0sW8PVZE3e48+P0Rgmoj0Witdc81aluqvRpdlqG7RtLHpk81tavwVkfYkSJNCLnquHxrl6IiTmpzXKOFYTyYpR/H9md3IFD3aPTgpYRm6UlQQn2+ahVmB+x0siHl40lAgnNVt1JG87pRZxum6+jyFP69VUWvel7OTR5adtrfDIfM0lM9HrXfDTKUWe+z1VfGUXSWxvISXQZFALVB+igp10Rm6XGxBjONGHwkfagIGRHp4gXluWp+5CCmaHKR4+ZgJkLGA5O2/9OPrrz27OvRP+gxjMtHcRJyvZmlp3E8Y/gYisYR43JnPp/0HsVJw1h+HMNnWgmZOLg2jSKsVxWapUeTyfFkew7jYlLC2RqXO/L5WEUkpJ86+9liTXwj9oyM5ccpgTYKKyETBZqlE0IIIQ7D2sKEEEKIw1BcCSGEEIehuBJCCCEOQ3ElhBBCHIbiSgghhDgM/VzHOWHv0l7sevEXDtbXTeB/GvE54He/GgfP+RJCyMTD8nMdPIRkhSSuTz/XSD9T1c3OTIvUx/NzBTZsWWUJlzS9+9ToFZoSIOI650RswQWpAbwUdVOivVIT+Z9KGcEVoQONOV+Jzrs8kzqnk+JKCCEZYPm5jqdCEqnghJ+rWJrZnqPbTmLqysyKy8f3c92JV+z5bYfguc9JYwQR1nrgrU/QY1osEvifqnO1AkpQ9bHuR4un+Br7ohJCyPXPxLzn6oSfaywXB3HOvEydBH6usThau3kIu5+KLLZvk8D/tGcQF8qNoDaWYBYyOU5CCCHp4JJi80/HuLrcMNgF5tcXo/OtDIzTE/i5apoetwr5r6/GybevbmYgyv9UTOG3DaJBjvNB4N2sDeIJIYSMhmvTM+LqsmbcGqaPqZ+rRMA6XXpICW2Es046JPJz3fuSSRVvB1ZfPUP6Ef6ncgEhoirHeSAfD2XhrUoIISQ1XJZR91RMy97xe0yYiH6uyTFF8LP1RY1DPP/T0ul5uNBxyopW31LR7MU8eDO5iBjD/SaEkOsNJa5y33AA5x2+hTmmOOHnavqwvEKXwnsg8j5mln6uvnV42p7f8iim7d+M7aG8cBq+qAkQEX1Sj3Q2fqzPqCujBP6nfVvbMVC7NHScdYH2OPdrUyH7/SaEkBsF/SjOaI+K0M/VYSS6TtEXNf6jOA6SzqM4aew3IYTcyOhHcTJ9BtNxrns/18x8USuWq/c88TWH75XG9z/VYivty8tMg+CQnyshhNwg0M+VEEIIcRjWFiaEEEIchuJKCCGEOAzFlRBCCHEYiishhBDiMBRXQgghxGEoroQQQojD0Cz9euIGOYdhA/lBtGz/GXadltcJzN+vczy+ZfD496Gj3zQQQsYFllk6BtC6LbJEXzTXp1m6Qkogrp+Ngosn8WbGbjHxzNJHsaAbKxKcw0izdNsUPtJYXYg0V49clpGJvH1e9Uy0oXs6JDJ/t5DCFivUwdriakj3e5QG7vIaTOs/ivOFt6Mk+HESQctFSV0DynKsuWBfM470XLJm4uAuvx0LSsN1s/3tlliKcFZ7TGOgDQfbzpoZQ2ENlnj7TXv0NuOuTwi5amhXnG4EcHYiuaU7YZYuAiBuMTuzu+SPb5YO+NZuiq43LDQ9jqfXrsOGmPamx57Hhgg39dj5rJCaw7ZZujrWcjVv10sWwbJcgd6LFlYp/m/a0xZWQWzuzPtf2DmEugfD20ydBObv14xcTPMCw+orl+MeQiDp1+YSTrXsw8EDamrtAbzTEb6MicXqt7fVrN/uh7esUq8faDNtB9rg9xTC1lmLIlRVA+1GQD2+Bnj9zaFtBkesTwi5mrh8a5fC0/I+xksFxJRwwixdBCBrb9MEZum+dbi/qh2vacF9Fa2eVSGxzK+rxvlt0q4uairmQ5r3HutCxXwjwKbPNqc+EDlO+1yJcbr1KgF5mFs1hN1OG9EHhjI4zwnM368F7kosaJSo0IvqRokm5W9NSuLlLixSoeg5Fb8nYgrcOUNatAWP14tg7PqFhfAqNQ+YWcFdrgS4rzO6zT1F/V9FsL5yIGYZIeTq4mqqC+DAG8fNLEmLBGbpvnoVUnQ0G4P049i+vwueYmNL173fpN97cX7QgyLxed17LCS0aJqPiu5jY3KxU7dyNgaU2NpCVxByy7FdhabCq36fvSp6tZ11VqvoPhMkAtZ9qGuGbMU6yvz9WhDsQkffZZ2ulchS0rwHDxxNKl6S0l2ihHiBuytpSlgpoopSLdGW9avVt8ZeX9LF0rakbAhHIlO8SuyrvGfREdFvoE2iW59a34pgk26TEDLmuMbqh9wpxtQs3QkSmaWnhXjqVsKn1NVX7EH3Mefv2cp914bA/lCat2/rvlDqNzp1W4hZMCby205iakQaOR3C/Z/GnCwM2u00dfT91qtJEapEJEsnw1uthK7aC3dpA6oKzeIE2CndI0EV9Zbn6raQWMrkUxGtkJcHt9wf1elfNUWIaLDnY6utNw8L7PUVnvIi+Nu6wtGtjqwLEdB9NMPvHX3/CCFji6t11zUafJMiE9Esve10APlVDZCgVA94WlqJwOnk2YG9uw4BxStRp4Rkb+TVTtbHk4cVz1vCmkigxFDdSt0OwH+xH832euX5KAildB0yS0/jeOKZv2eC2Ad+/4lv4a5i05AWKkKUe5haAJvRG+jBESViqY3OlfupkxEMWlFkSCwjRNTtzoPfn3zgkU4VBy9aM4U1KrrtwqmIvLFOPYfSwJJm1i8IIdcQV6IRwuMaGYy0NUuzdBVvrtZpS3WJP2U2HopKgWZplr73JbzWUY1HdNujmN3x6ui2fkqoz1etwuyAnU42pHw8CXjQh7opkSlg6zhDaVs1PSQDh7SADWH3W4NoMO3RKd00zNJlwJndx9Zq+LcdCqd00zCzj2f+ngl9x3twAfnwZOryrqLLoAigezqUzCW5f6qQEbx2dNrYAHdvMiG2BjMFY695dCRq97EMpUE7zRs9iMkm2K/mVTRtre+Du685RfEnhIwV4+s51xvFLD0t0jieMXwMReOIWbozn096j+JIJqIWgdAzsRMTPtNKyMRhfFVouu7N0tMkk+PJ9hzGxaSEszVLd+TzsYpISD919rPFmvjm71ZK+E5gz8QWVkHu41JYCZkY0CydEEIIcRjWFiaEEEIchuJKCCGEOAzFlRBCCHEYiishhBDiMBRXQgghxGHo5zrOCXuX9mLXi79wsL5uAv/TiM8Bv/vVOHjOlxBCJh7az3Ww5VU8l6R4//Xq5xrpczrSLzRV4vm5Ahu2rLKES5refWr0Ck0JEHGdcyKm4IJUqLL9UkNetFJxaiHM4Sj6sXujXRkpYlmsd22i8y7PpM7ppLgSQkgGaD/XQN3dliPLRMEJP1fVxwrb51RNzR41b5dQTIP4fq478Yo9v+0QPPc97uj5rVtZjM5tst/7lXjOxh2hso0iqNbxvBAlrFKC0LRnbbNHCCFkNFza4iyObdq4xgk/1yhKMKfcDW847EuRBH6usTh8flu27MPuA/JqCP7RTDsfLMbU1kNmfUIIIVcD1+b5x7Dp2deji8XfCLzVhhaPXRS+GOgx7emQwM9V0/S4Vch/fTVOvj1G51eK23tO4t+NjZzYxa2wC+Y/Yxnhaccb26RApuczs5AjhBCSOq73sQqbf7DO2KONP8bOz3UIu58Kp1BPIAh/JgKbyM9170smVbwdWL0Ja5w+wfq+az6aQ2neU3g7lBLery8cbJefgtp8nDDLdgci08iEEELGAtfel19FK+rRNE5vul4NP1exX1vhOY3fhFKn2fm5JscUwc/GF1XuOYuwhu6rxjIV3inWxULfuSFcaFVRum7Pg9eT4UWEE/tNCCE3CC6gDNPyB3B+It10ddLPVfoRP9OogT5Z+rn61uFpe37Lo5i2fzPCvrlp+KLGJU8da6H6G5EC1qneiNTv1oXATnNf9q1DaPbYXq5LMasj0/uv2e43IYTcOOhHcUZ7VIR+rg4j0XWKvqhxH8VxknQexUljvwkh5EbGJfcFM30G03Guez/XzHxRK5ar9zzxNdSZeWeI73+qxVbal5eZBsEhP1dCCLlBoJ8rIYQQ4jCsLUwIIYQ4DMWVEEIIcRiKKyGEEOIwFFdCCCHEYSiuhBBCiMNQXAkhhBCHoVn69cQNcg7DBvKDaNn+M+w6La8TmL9f53h8y+Dx70NHv2kghIwLJm1/51+vtG6LLM83kuvVLD1kOh5rIJ4W8czSR7GgGyvincNIY3Uh4lhts/iene/hbdtZJ3L9TM9L1DaDaNlmW+Slh9R81iUuFSPN7KWwxQp1sLa4GtL9HqWBu7wG0/qP4nzh7SgJfpxE0HJRUteAshwzCz/aDxxFIndAd/ntWFAarpvtb48UyyJUNfrgHe7BkZYudTYjKKzBEm8/DradDc9XexHsa8aRnktWm2DahRHLCCFjgmvTtnbMXj1+XXHi4oRZugjAg8C7O7O75I9vlg741m6KrjcsND2Op9euw4aY9qbHnseGCOOE2PmsEZG0HXMihHVO2360XLRWsUlsxJ4GB07gp/b2dg6h7sFMbO5KcIfUfJY+tp0Ean0OV6hKl1xMU/o0rL5yOe4hBJJ+babAnSOCug8H9ZRYWO1+e1vNuu1+eMsqYV1SiLBWKkH0K1UMRgurLKsG2o2wSgQrQtuuNhQMhsVThHtJ2RCOmH2hsBJydXBpZxdUo24iqasTZukiABlHqzYJzNJ963B/VTte04L7Klo9q0JimV9XjfPbpH0HuivmQ5r3HutCxXwjwKbPtjEuSdmyJSJajSAtI/ZUCQxlcJ5P4W378zkwhAHddo1wV2JBo0SiXlQ3LkO1R/7WwGMWj8Dthlupb2qnT4R4SIu24PGqyNN/TgmpRL9KWFs/xnnkwe830anBXa4EuK8ztI1AmxLPtotK+C8jGArwi1BSOoT22IiXEDLmuNB0dzilSdIjgVm6r16FFB3NxiD9OLbv74Kn2NjSde83KfhenB/0oEguavYeCwktmuajovsYHNXWKbPxkHHM+e5GMU9PARXZRxuxp4ekdLUTj7pm2J3lhVDpxmpMDdnmXQOCXejou6zTtRJZSmo1aTSalwe3x4clSoiXJBNhQYQYlmjL+tXqW3OkR8XtdQuAto9xSkfKahciM+JK7Ku8Z9ERG4W6p8MbIdQoLFQ9h/teosTaiogJIWONa/N8P1oHzdw4ZOzM0h0ikVl6WuxEW3clfEpdfcUedB9z8J5tZIp24ycYqK0P2/MlQt8zjTRiT5++rfvMNk9jztb6jFO6+r6rpz3mfuvVRFKzy/Q9UW+1EqhqL9ylDagS179E9B816eB9ONKXh9LyXN2sU7S20PmKdJsW4kBbaH19/7RwloqSJ6Os1lq32iOvb0eJUUZPeRH8bXGiUd1XOGJ2u/PMhYDVd3uwCNOoroRcFVybXj6DafkBnE0yoOlacjXM0keSnVl62+kA8qsazH3seViztBKB08f1XCL27joEFK9EnRKSvZFhqyPHY2jMw1RJ9yYbXJTQiN0hs/Q0jkfuC4uwZnsLQOwDv//Et3BXsWlICxUhtvYgqAWwGb2BHn3/MrXRuZKWnRy6Bxrs+ThaRBUigLEp30hxPijblsFMB6woVgYnVaPLeh2DFtNgzE10GxXtlnoiolpCyJjianpsFTwt7zubhhxrJLLa6pBZuow4NmnT1aHBO1mape99Ca91VOMR3fYoZne8OrqtnxLq81WrMDtgp5MNKR9PAsy50ina9TJYyRJNK227FHVT1ClcqZZpw/VERuxCGmbpItD2+7dWw2+2qUn1eCQtXa7+6s/X6ivllHYMfcd7cAH58GTq8q4iwqAIoKRdVbyYVJ/0/VkTncpgpNZkQmwNZopK+cYi0WhoMFP0ICYbOyKW6Fqiajv9G+xR0a3My77U5qEv6cAqQoiTTPrJ5m9fee6N5FEVzdKvJWkczxg+hqJxxCzdmc8nvUdxJBNRi0DomdiJCZ9pJWTi4BpNWK8q171ZeppkcjzZnsO4mJRwtmbpjnw+VhEJ6acuaiBefPN3KyV8J7BnYgurICOCKayETAxolk4IIYQ4DGsLE0IIIQ5DcSWEEEIchuJKCCGEOAzFlRBCCHEYiishhBDiMPRzHeeEvUt7sevFXzhYXzeB/2nE54Df/WocPOdLCCETjxvaz9X2MxVG+oWmSjw/V2DDllWWcEnTu0+NXqEpASKuc05EF1yI3G8h5MeqawKP9KeNXD/Ku1VIdN7lmdQ5nRRXQgjJAMvPdf3jliPLRMEJP1fVxwooYTZF7Zs9KRS0j0N8P9edeMWe33YInvucP78ikva+h4Q1nj+tlBG0j1MtK1fzWdUGJoQQMioulHiRD8uRZcLghJ9rFCWYU+6GNyIaTI0Efq6xxLGlc5xE/rTSbp+rnkFcsF4RQggZQ1ybl/rRKpXUbzTeakOLxy4KX6yEx7SnQwI/V03T41Yh//XVOPn269HF+B1AF9vX+566nVvdytkYUGKbUtqdEEJIxrg2Pfs6YgyvxhVj5+c6hN1P2anVQziBIPyZCGwiP9e9L5lU8XZg9SassfznHKFlSzgl/GZrHlY8M7qjrNx3bQjsj77fSgghZExwyYCcIo+ZG4dcDT9XsV9b4TmN34R8TrPzc02OKYKfrS+qYbrHjQuBATMXDyW+z1vCmp3huLP7TQgh1zMuNN2N2vwutE0kQ1cZvLPVIT9X6afqdNTo2qz9XH3r8LQ9v+VRTNsfORo7DV/UBEgUanucyqAsSzQT+NM+6NOerQW1S0PvCfvWpkP2+00IITcKE/dRnIQ44xc6pn6uEl2n6Isa71EcR0nnUZw09psQQm5kXJueSS6sV5Xr3s81M1/UiuXqPU98LeWBS6kR3/9Ui620Ly8zDYJDfq6EEHKDQD9XQgghxGFYW5gQQghxGIorIYQQ4jAUV0IIIcRhKK6EEEKIw1BcCSGEEIehuBJCCCEOQ7P064kb+hzS/D1MEaoaCxE4cBQB00IIubpM+snmb1957o3jZjY+16tZeiJz8fSIZ5Y+igXdWJHoHMY9V1JzeKkujQgE0bJtH3ZLbWX7nEhz7Hkxy5ChsbzUcNYlK4Uszvn4Mn/PRYlvOs63ncO0ulkYbkksaB7fMlRH1fG+jN7Wj3Eqri2x6reuAWU5ZhZ+tGuxTNQeRrbj8e9Dh1j7FtZgSbXXWhC5rrsSC2rLoT+NQBsOto1n+w5CJh4TMy3shFm6CEU8c/E0iW+WDvjWboquNyw0PY6n167Dhpj2pseex4YIP93Y+axIcK7qnlmKWR37jYn6EOoetEzU61YWo3ObOO7sRwtm445QHWIlxg+qZa2Zn6++rftCbj67A7Nx38Y8syQN1Oc2rszf3dPhVRcnQUyBO9ifNFIMtO3DwQNmaverhq4EwqrQ/fbgiFm/PeBFaXmuWqC2kyMiafcVI+ZKTKvRZgmr0H80tE3pw6OusawLgjz06fY2+D2VKDHXPIQQZ5iY4uqEWXoic/G0SGCW7luH+6va8ZoW3FfR6lkVEsv8umqc3ybtO9BdMR/SvPdYFyrmGwE2fTpmpBD3XIk5fD+adfSpRLNRiv3n64L8LVtMBIsh+CN+tUWMverHePc50+AAA+cycOkZR+bv7vLbsUSiP48PSxp98MpfX5FZmowiVFUD7cmixbw8JdYi2kIRPJ7L8PdfUht1wx1IJOJKNMvy0NsTr1/pww/1VsUlnLIjbOlPfdbDWVynEkJGwgFN2ZDALN1Xr345O5qNQfpxbN/fBU+xsaXr3m9qOffi/KAHReLzuvdYSGjRNB8V3cdwVUyKJKrdKqKpotSLefDazkKCRIiek/h3Sbmq9ZzxgrXs72w3n2z7u9bm78GeI+gdtqLI9oCkeFUkmEJ61eNTH3p7TMQZg9utonot2su0cKPdpI9FdEPtNYjMMrvLF8DrPxIdDUv6V69biWBr7DaVyKuLg+Ao+0IISZ9xL65jZ5buEInM0tNiJ9q6K+FT6uor9qD72NW4Z1uoItZBvLnRvmepIlXbz1bfW81Hs47srcg2ZFm30rx+PpN0bIRBfVsxnkzB5D0R19z8Xe5lNsq9Ty+qlXhVeyajrDZa7OIh0W5U2lYh90gtsVyGBTr1C+S4J8Pfbqd+zf1TISLNe6Qvz6SKhSKUeM+io0dFt5EEu0xquQvuyP3ToiuiHdE3IcQxxr24Xg2z9JFkZ5bedjqA/KoGSFCqBzwtrUTgdPJBY3t3HQKKV6LO0469kWGrI8cTyymc6AF67KhPPF8xCJ3xlWhWhHXjIbTIfKQgmvucF1r344VQSj3FczUKYvH3/Se+hbuKTUNCrOj3mpu/K5E70nfZEsDWHvj7mpWAjRIBKkGrKh0akQ6OvBd7RItjrhJXO4WbCCWmpZMRDFpiqqPh3i6TRo5DYSG8w0MY1q/VhUGtdc+VwkrI2DAx08ISWakoyhGz9FhzcU2WZul7X8JrHdV4RLc9itkdr+KV0fK8SqjPV63C7ICdTjakfDwJSHCuWrZ8Aqy0UrRPql3eHRGl6qhW2mUaNUJN9VxZ0abuUyaJmiPuBfcd78EF5MMzmhP7ODJ/z3EPaQF0FxapCDEmYhxBGilYPZjJCGEkoRSvneYNjwiOjYat0cbhiHhJ2RCOtCjxlT706GEr4o6MlgkhzjFp+zu7rwADSGaYTrP0a0kax+PYOUwPZ86VRMC1CGz/GXadNk2ZkM6jONI24c3f+UwrIeOR66uIhPxYLi/LsoCCKUYQWYjgWpHu8ThxDtPCmXOlxXlRPrr3ZHNBZPZFXo5aRMK6YKnL78WuF39h0t+EEOIcNEsnhBBCHIaP4hBCCCEOQ3ElhBBCHIbiSgghhDgMxZUQQghxGIorIYQQ4jD0c52Q2I+SqJfj4ZGheJjHiITsHrEZH9Q9sAF3zZRXg2gJPYubzuM/hJAbiUnb3/nXK8kKSAj0c02Cbx2eXl+PkJ3ru0/hlVPRbRg8hNeefR1tTY9j832VplGRsferiOsKdbJiCi4kOJ5IH1UpXWiVDZQKVQth2aL2Y3eo3KEgJQaXog5ZnJc4RRui/FwV4X1JB7Nv2oc2jp9rqsQ9V5HnJF7fCc57ou9unHNACLkxcL2mflFrV68zdXAnCAk8StNCflyz9nNdiQ3rq3FSW8hZU6jMoQiqaXs/UI/77frDIqhxrOiyJtHxqHP1UJU6V7o28CcYqK3X5Q9LN1YDSjy0t2pPIRoivFVLN9ZjVsdJ9Jh5J9F1iU2d4swM12Xf7D72w99Yry4C0iThZ38Kb5t9e2HbSUxdmUHfhBCicLUdasegmZkwjBs/V7GNm4rZ9dGF+68JCY6nzlcYKtAvgloON7wqNBPjcjsqOxeIuEgRMfa0Z1kU/yrRWIJZU2Ks8lIh1c/+ojEzIISQNHGJ92h+4Ex0sXiSIlK4/ykc8JjC/VK03ya/3hTufx53Yweee8O44lSsMkX+Uyzo7wiWSYGIpkT7U6eHo1RZdkftkDFOV+vFFNR3mnDB/QizhTTo29quom/Tx4P5GLhoFjiFZEWk7/XF6Hwr24svQsiNiuuRugDez+i+39Vh3Pu5Kva+bKV/XwssDQtsRFo46r5qKC38VFhwx5jyldXwb3svFO0PnLOjUhFdWWbdb9WRrXEIelLuPerXmYlgPCRatlPCL+wcQt2DmXjCRqRun2qDP9KH1gkkK6L7P6SE1rljJ4TcWLhat72EqxI8Zci49nONQXxcMyezbY5GS1s/0NOO3VqAJEoF/HIzVe47amHdZ5bFiN/GT9Ajg3022stlME8W/qcxlEr0HBgKRYap+7mGqXtmKeoCp8MDsRz57McSZ88hIWT84ko2SnjcooVhPPi5rsQGk/rV033IIguQui9qfBIcj4rEdkPOkRWNYqcllnUrZ6MAbtStl3aZRhu8k73/qYwWtralPjsZZJWJn6v57KWPFYgZKZ7tZx/R95Nbl8J7IHzh4QzZn0NCyMTA+LmaR0gShLD0c706pL7NBI+EjDUSGabqf5r2YygSuWfr5+rMZ5+YBOc9nUdx0jmHhJAJy02HDx/54e6d76G5y7TE4Y+/8VW88287zNwYMaUC9fU1WNy4GDW5vTjUmcFoVfnhWns73G3v4PWPMh3tKj/y9+PO3Ha88bPmqzSSOt1tTsHsL9airn4x7qhxo/s/esZ4P0VU1uH+uYPY9d934YRpTcqM23BH7QLcoT7PsmAzjp017XGQi4o//8YcXNjz/8UvOkxjujjy2SdGikisu2cuiif/J84c/QQn9UAq63NbtWA6cv7zHI7Yn4OI7XdXYfmsqcBADz48LmOOMziHhJAJC/1cCSGEEIdhbWFCCCHEYSiuhBBCiMNQXAkhhBCHobgSQgghDkNxJYQQQhyG4koIIYQ4DM3Sxzlhk+5e7HrxFxGeqxOQFX+N2q+KgXoQp1/9P3H2N1ZzuqRlXE4IIdeAG9gsXUrgJTPGTpV5WPODR1EbcksXA3Rgw5ZV1g+9NCWpfjUaIiRzTsRWHLINw4NoiagNHDonQsR5qXvmHqwwBxp7nNayWLP0VGlA0aZvozjkCt+Lrqf/HhfMXHzkPauBNzMXV4s0qyU5gLu8BtP6j+J84e0oCX6MjiRWwB7fMlR7rNfBvmYc6blkzRBCbghcm94N3Jhm6Q4ZYzc9poQ1EHa6sRxwduIVe37bIXjuexxOeaJbwloPvPVJtJm51MVdCSWSckz70eJZGKqX2yA1eKV9Zz/K1XyodrE6jytwEi1Z2baJoP4VWvVkC+s3UfHcj1BrJt/DDbo1MZHr/x2K5ppmiXTt9r/4pmm8VuRimhcYVl+5HPcQAkmE1V1+O6rRhoMH9qmpDcHSWTA6Swi5QXD5itU/+4nm5+qEWXosGRljr4Svomv0Yv2DfiXlTjGE3U+NLChf2lAMtLZZ0eeDPhXVwvJtFWNw+1z1DIajShHjMfNufQfdIcHdg+H6FTrdn4iCv1gO/C97fTuiVYK7bABtpp8uLEeFClSvCe5KLGhsQFmOF9WNEpHK35qEgpnjVpccPUnqPRJCrnvGvZ/rmJKtMbZvBjyJhLPpccspZ301Tr79+lW6eJmqolp1PCKaKkot8Ew17RbihDOgxLZPot8H89H8lBNm4GWotKPLTRuQY1oL/sK0Pbcc00xbIi4c7cW0r8ZEuCtuw7T8+fCZvisrTfu1INiFjr7L8LerSLTdr9O8Bw8cRSKDwYB/CGW1y7BECfGSRh+8w0MYNssIITcGrk3vAndvcTJt6SxjapbuhDF2vhcl5mUUe18yqeLtwOpNWHMV8u4FtQvhPaCOx4jmhcCAtUAh91YbAvut+606si3ECmOtZr8OW+6lQ0RaePMrlois+GtUeo+ZqHMPzuv1krD77/X7u7FaC2koQu3aY/Vrpu7dpv2qUoQqJZILSifDW63EstoLd2kDqsyt7bj0HzUp4X04okQ56D+HbG5gEEImHi7sPaZ+1DwoGqc3Xce1WXpbM04OVqJx7TzTkAoyEMd5w+y+5tO4cPEk/l0PVlKRaWMhBs6JO4zco7WE9adbjVtM6KLC3J+9KAOawgOdMjEuH4H/jBFaFYHqhtEZ/uf/E22HgsgpVhFs3wCGK29Lmk5OleyO5yw6WnsQDMg91Gb0BnpwRIlmssFMNnLvdUHpEPo4mImQGw4XmuajYrAdLRPppqvcL1SRVlZm6aaP+MbYqRqXH8f2Z3cgUPdo2DD9sZWAbx2etue3PIpp+yNHY2dvmC1RqBifl9tm58+o2PnACbzbUayNv+V4ZnVERqkS1S41xzp6hJqycXkidv8W5yuXW2nhmgGcNn54OQ//nWqT0cVuFD8aTiOHU8g/gm+O+vz+uRn4zSvoPuQNp5wjBzqlSdbHk5enos+zSi2nw6ti0KRRqL4/a6WEF7i7kqaPCSHXL5O2/9OPrrz2bPJ7gjRLd5g0DLPjP4oz1kjknq1x+ViTzqM4E+F4CCHXE65NowjrVSW/Bmuf2IA/Wz5K1JkInRL+JmZ1vpOFGFkp4bWzevCG48JqUsLLgV1pXERULFfveeJrGT0qlC5WCvVOYM/4FSK54JDPuS70fK1gUvmmEInNRDgeQsj1B83SCSGEEIdhbWFCCCHEYSiuhBBCiMNQXAkhhBCHobgSQgghDkNxJYQQQhzm6ourPIcoj0ykUgGJEEIImYC4pIrQhqtZWPj0r/CTF1/Bj/f0mgZCCCHk+sLVLbUCCSGEEOIYrolUUpgQQgiZCHBAEyGEEOIwFFdCCCHEYVx3VwAV9xmrNEIIIYRkjev9bqD73aew6eWdpokQQggh2cC0MCGEEOIwrr0vP4VX9pq5q4FdRGJ5mWkghBBCri/o50oIIYQ4DNPChBBCiMNQXAkhhBCHobgSQgghDkNxJYQQQhyG4koIIYQ4DMWVEEIIcRiKKyGEEOIw2iyddYUJIYQQ53BteoZ1hQkhhBAnYVqYEEIIcRjX5i2bsMZn5gghhBCSNa5N7wZQu/5xNJkGQgghhGSHC3uPodvMEEIIISR7XL61S1Ex6Mcp00AIIYSQ7HA9UtWO1559HW2mgRBCCCHZ4dpEYSWEEEIchY/iEEIIIQ5DcSWEEEIchuJKCCGEOAzFlRBCCHEYiishhBDiMBRXQgghxGEornFwl9+OBeW5Zs4JclFSVwOPmSOEEHJ9Y/m5/mAdsq3d7y6vQYnbEqaqQtMYB49vWbRwuSuxoPF29V4RoGVY0mhNoT5keV0lVNfRFNaE1l0Sb3kU0X0vaUwudDnuyQgGL5k5B3BPhxdDGDazhBBCrm9uOnz4yA937zuMT01DPP74G1/FO/+2w8zFIxfTZ0/D8O/O4eZi9bfnXEIhGb40CUUz83DxzAV8jiJULS7DYOsRwNcAr78ZLUfb0eefhFLVn15nWhkqbxlA96dDpgeFCGs10H7g1+jo7UawYBGmT+rG8K23Y27BeZwb+EytJIL6ReQP9OHi5x4UzZqEPrN+X2/i/ZP3eWZ6ccstZaieU4XSmVMQtNeX7S6aq9oqUJo3jD6zT3LBsHCOapP20Prq2BrrUS1tMwpwy+CZ6GMghBBy3ZJ9WlhHng0oy/GiWkWF1R75myQyDJ6DXwnPNBVqenwqXm7/GKfyZqEs2IYjPSZaDAYRzMlDjnrpdufB7z9rtWuUaJblobf1KAKmZTh4Wa2Xq94WKV5T4M5R0WJQvXS74Q70h9ZPjrxvsoo0u3DwwD60B7zwSBQtwurt120HD7TBrxrlGCVSr0ab1d7ag+CwRKgi7HJssu4+HOm7rPbtou6dEELI9Y9OCz+9dp6ZzYBgFzqUePhFSNr9CPY1K0EJC99ILuG8HyirXYbSYDM6+uMJqMKI1DSv2kRUwKfED2dxXkQzAp3GHVIruqdYDYWF8NqCmpcHt8eXUkpYC7GS//Y22Z9c5LiVMKpuPV61I6E+RDjlGItQUjpk1lWo7cB/DsFC62JBjk3IURcS/n4H08yEEELGNa5Nz+xAoG5NxobpVUpsFpSqSK9aiU61F+7ShqT3XIVg/1kV4fWgw0Sqco8zEnd5JbwSvUZGnzZa/CIRgTMCLO8xyz1eFd32GNHrP2oiToki81CabLCSCGRfp7k4sLdfBI9HCa7pQyYtnLItfRFgIQIsIi8XC+FIVd4bcwyEEEKua1zATrR1T8W0EtOSJh2SCg1IWrQZvYEeHLGFJxkSSWrxDCNpXetFJaqUWGphjBGvECZlLEhq2Rvowind2UXRV92HJ3jEtEUiQpx8sJIljGa5bF9Hv6rfYbXNJKOmdHp4REhspYdVzEsIIeQGQonrSvgqBnA+U0NXJZRBSenqEbHRgpmI2DRwoK0NQRXx6pRrbRH8rR9bwiginFOOBToVqyZfkYpOJQ2dp+/vSpu+32mnZXFJCbFaX0Xhp+z7t/qesHl/YyWCrcnEPyYNLVGsjkAv4VTvkE5lW/3I6GbVrO8fW/u3wN2F9oCVQpbIHPp4GuDubYM/3gUCIYSQ65ZJ29/ZfaX73afwyl7TEodX/+G/4tHv/aWZI4QQQkgyXJueSS6shBBCCEkPVmgihBBCHIbiSgghhDgMxZUQQghxGIorIYQQ4jAUV0IIIcRhKK6EEEKIw1BcCSGEEIfJXlybHsfmx1aaGSeYhzU/2JRxrWNCCCHkWmOZpW+hmBFCCCFOcdPhw8U/nLNyCrrf/AhdpjGWpGbps76Eu6bfhMJ7voOHv3Yv7rrtD9h98KRaIBHo31htK7+Mwp4PcPRTwLd2E57802+oNmmfiz/sNNuVCPh7a1RbA2ZMvowz/2GtD8zAXevXYcW0XhzqtIv+EkIIIeMXl2/tUnha3kdWFRArqoG3n4LY13VXzEeTavKtXYNp+6VNTdvaMXv1Okhw3PbGZqtNTa+1eNAoXrK+dXj6PuB93f4qWgd1r4QQQsiExNVUF8CBN46b2Qzp3o/tbfKiF+cHPSjyzUNd1VRU3CcpZzWtr0e+XlEhQqpT0c/jkbqpVluJF0go8Gewa9sr+MmeM2aeEEIIGd+4KrqPZRe1JmQArdtM5CrTs6+jTVLFq+sReNeOXAf0mr7iEUaohBBCyITF1bprp3npJMdxNjAVs+vnmflIbO9YK7oV2k4HkF/VoNPGkk6uDYW5gtxz3YA/Wz7DzBNCCCHjG5eVznWevS/vQKDuUSstLJN+XOc4WjqA2vXStgboMEOo9r6E9wP1eERSxZ79eL/baiaEEEImIpPmLVxyxbxOCM3SCSGEkNRhhSZCCCHEYSiuhBBCiMNQXAkhhBCHobgSQgghDkNxJYQQQhyG4koIIYQ4DMWVEEIIcZhr8JyrVFz6JuqkCtPgUbyx7Vfok+biO/Fna2pQoF5eOPwOawlnwg1yDuse2IC7ZsqrQbRs/xl2nZbXNVj9xJ2o0M0R3ytCCLkGTNr+zu4rgy2v4rkkxfudF9cVwA77R9EgwrBKNaf6o/hgPZ5cWQj0fIIXtuh6iunTOAffXT8bBRdP4s2nTmT4YyzWeo+GSzZ278Cml8eipGQKxDuH9jGaWUQca90z92BFuTqFO9/D229Zi6PWz+a8jPnn49D3iBBCxgCX2MQF6u7WNnETBvnh9p3Gm61B05AB8sP9IPDuzn7TkBlNjylhDShBtQ0KjLCKb2106UdF0+N4eu06bIhpb3rseWyI+ABi57NGxGnje3hBpghhndO2Hy0XrVVs6lYWo3ObrKuWYTbuUOcobcbR50MIIdcCF5rmo2LQjwxji2vDW4cyj4ZsDpzATzOOVm1WwlfRhfdjI1XfOtxf1Y7XtOC+ilbPqpBY5tdV47x2Cwp73+491oWK+UaATZ9tY2NVFKJlS0S0GkHLln3YfUBeDcEf0E3pM24+H0IIuTa4Ns8/ZuzgSNr4ZsAT58LEV18NdDSbc3oc2/d3wVNsHIJGeN+ql3uPhYRWX+w4bQM4ZTYe2noPnlTTdzfmmcZRUJFjg+ck/j2OABNCCEmO632swuYfrNN2b+ORogcO4itPWNOXll82reOIfC9KzMvM2Ym27kr4lLqKt233MQfv2UoEaKeEN36Cgdp6rGg0yxKh73Xmo5mRIyGEZIRr78uvohX1aHLyHp+DnP35EnzwojV9tGeyaU3Coq/h+09swOpFZj4jZOTpBnz/gRozn4C2ZpwcrETj2mjf2kh/Wj3gaWklAqcTDxgT9u46BBSvRJ2nHXsjw1ZHjsfQmIepku7Vad8EyP1SEdaNh9BimiwsX93vr78TpaYlI5w8nhQpXf4ttc1v4a5i00AIIWOMCyjDtHzbwHyCIJHV1nvwUK0bKF+IJ7cuC0djhzshdrAFt45mrl6C1ZIqlRGtJm26OjR45yhO/E79KfCMIiTHsf3ZOL61e1/Cax3V2p9285ZHMbvjVbwyWp5XCfX5qlWYHbDTyYaUjycB5lxJSvjJ9TJYyRLN0o3LVNtS1E1Rp3ClWvb8HHWseeo8qvOBQqyw36PbhTM43jmoIvUCTNfzSRjzzyc9+o734ALy4Rl1xwkhxBn0ozjd7z6V9Md/XD6KkxDrOVrPr1/B24dNUwZItLPW04of//yoablWpHE8Y/0YikSdiy9k+QypM59Pet8jyUTUIhB6JpYQQsYWlzw+MmpU5Tj5qFsTJ8WYX4O1T2zAny3PMErTKcdvYlbnO1n8cFsp4bWzevDGtRbWTI4n23MYFxEy9XktB3ZlI6yOfD5WEQnpRxciCWFS+aaIho2VEr4T2ENhJYRcPa5BhSZCCCHk+oa1hQkhhBCHobgSQgghDkNxJYQQQhyG4koIIYQ4DMWVEEIIcRiKKyGEEOIwNxUWlf7QvE7IH3/jq3jn33aYuTFCHv7/7iosb1yMmtxeHOocMgvI1USs8p7802/grpVz8YedH6HLtDuFPKO67p7FuKOxGMGPfovr1hK/+Ay+9N2z+OwjD8bjN1lqds++pRRnz5oGm3j7HfFv846yYXx4/JxulmeI//wbd6jPcjHKgs04FtsXITcwrs1bNmHNeKnaP3gUb7z4Cn6yJ4WfXKmBK+XxnsmibL5dGjBU4u/aMOZ+rmnQ9sZmyw7PzI8F3XtewY9f/IWpXfxNVDz3I/gebtBzmLsBvk0bkGPNXXXE51Z/r7Iot3jdcfpX+In6d/njPb2mwaJvz8/U5/gKdkmpUEJIFDcdvvylH3599SKc23cYn5rGWK5K5DqlAvVzgBP/0YNB05QQ24y7Kx8L3AF8+MsYx+9UEGEVM+5f/h4LZv4njrznH327I5iHNT/4FhaU3YeHdbT3ZRT2fICjt67D02sWofSe7+Dhr92Lu740Hb1Jzu+sJffi1v730GzCRHs+/6ub8KXqWtX3mnDfupOV2LDlv+CBlarvULvsy99Y25P22/6A3QdPKqHehHuXNOGBP2lCYaHV15zPk/UtVGHxyun4NDJybXocm78n64b7zoTi+Yvh9UdGOXNR8OVb8DluxeWPm/F54WLcugC48EEzbn7471Dzna9jxj33YYZvMs58/BtgxV/Dd8dC5H3n26iMbEcDijY9heqvq7Z7voIr3bswlOiEJ0J9J75W1YuX/48WfOguwH2NU9Cd0fdCMWUIZQs+w3k7ApSI8J4h3PLl46j9oz5U1tyEc/8xBZ+pRbnLP8Ed3+hGZWMfZuTeit7Om4FFHfjK2nbdVtnox6TuIpxXX3MdcRbfhFnfOI7qROuX5aHruHV5Etm3bj9/QUWmx1E8FXDPkr6j92XEfkcy4zbc4T0filxtRn6mhBCXdnZBNerGq+dcPMaVGXclaj37VbT3FF5TodjseuOQU1GPafuNWXrG53cqaqv8lun6uwHUrrasAZseW6WuCqRvmTYbf1gxEbDbxKB9qclITEUF9ut9k77ebxkw3rLx+46PEvOlZl01iU2hs5H1AC74Z6FohZkVVARbMacTbU//FVqf/kec9i5HhVmeUz8Lw69K+x6cr7xNlzvMeXg1cvZJm5pe7cS0hzKIfuU7YX+vegZxwXqVGadn4KMXqxClNzN7MOXX4vC0CN04hyJx6VGiu9BTbpyfFuHsrN9ilrQfrgq5QX2wJxcVd4T3xjsL+ETat5erK7HzyFV7unBxHg6a9Y/jt1gorkPS96zpofYPfq7OlN4vtY6KNv17TPu2GbhkdR1/vwkhaeNC092ojarRStJjAK27LP9VbTXnKdOvMXjIWMcdx9nAVEzLMHvdvd8Y2YuhuvGO3XusCxX3PY+nY6zu5H6p5c7zaNRnavvDSl+RlyTx+o6LGLjn1xuXn+dxd4Vpd5DL/3wAWBYWxC80KAU58WsM67lmnN3Xi5xikzruOoCzEqzidxge9GLy3AZMnePGtK/+CLXPqenR+VmnletWzsaAEltHDRAGy9GhaypPxqULw5gyXUWW884hZ+ZvjWfxYXWe9ZoKJZjGx/gry/2mzcL/ayOGIoQijIs+hTe/B0vM+vNm6tXU8mlKJKW9A0WmiRBydXBtnu9Ha0Z5r6vDuDdLv5oM+i1x3PuSjiD/BWu02Oko0rcO99cF8L4duab7mdp9J6J7h4mKrcl5s4d3dPQ6NeOb30Gc1tGsmTa/YoQ5feS+a0NgP95+yzSMMcOHF4Wj1BcXovO0fO9/i1y7fY/XrJmE390W0ccSfGJEvHObzN+KIvk3tP6MinIJIVcD16aXz2BafgBndQgz/hjXZukZYRxmIhyBTgUGUDF/pZlbCV/FSH9d39qlqAicifJ6lcFHr4XSvApbIH0NmJ1GNiJe31Gc8mOwYj7iZ4KdO1cX3u/EtGUqYlX852k/cuYsNhFoA4qWlWH4dLOeG0kzLvtV5NpgItsYUjdLz8OK5y1h/enW2DuOY/OduPRpLnJ0ancklz61vu9Fc6Ij1xGcy8PwzE+TRKcF+OTF2+DPH8IU03IxkIPcW8fqYnUs//0QMjFwyf07T8v7uOquc9kw5mbcqZqlO0PbG9vR6lllUrryeWw391Gh07/S/khVO1572Urvymhia12r/V/eOK7N1k/CpG5XAydTGO6buO9VqEAl7pa+xPy97XX8S4vHmtdT5AhzB8/Vb17BGSWSWlB3/z3aTsyCT9K8z30b0078I7p367XicuG/7cFw/bettLBMf/FNsyQNs/QHfdo8vqB2aZwRw2P0nThcheMXwindr5gU7tkTXniXW21FgfLkUfjpGSpSvYR5oT4+se7byiCqUNtvgT3he6mXjquTseiwtczxiPbq/vshZDwy6Sebv33lOflxTsJVsZyjWfoIROh8x8bGb9fJvtM5V/Kc65wT2Rqlp4tEUtmbpY+H78Q1RbJCczpHHH+8z/SGP1fkhsc1mrBeVWiWPsHI7FxVLN+gPqevoc7MjyVWSjhbs/Qb/DshF76S5l1uBusZrHO7AXfZA6g0/PdDiECzdEIIIcRhWFuYEEIIcRiKKyGEEOIwFFdCCCHEYSiuhBBCiMNQXAkhhBCHGf9+rvJ4zdrl48AzUh4xuB+rxNOyxo3uVNx7rid86/D0/57cPSkV0vFzlUc94vmFhvvwIbf7E5zMwBTpmlFYgyUzJ6Hv0xGeMzHkoqTui8gf6MPFz01TJsTdnkN9E0ISctPW/3vrD6PtxkZy1SznKs7hX//7v+CDSKN0sbm6+TB+/D/eTUlYpS7sw+uqUebuwLGMH7OT6k134L6vV+PLy13Gduwcjn3UjA+73ahJ1RovHlJd6m8XY3mo30yIby83pty6CHfWAMezFFexJ7up+RX85P+JFFYpO7gc9/9JKdz93eg0tqGDnZ/gQ3XOg2XRlmZnjqvP4aNe5NbMVh/EGIirEqSq3HMI5NZgwa1DODegzdgcwX3rLOR/3ptCnx4UzboFFzvPZVwjWZDt3Tz4WwRCtjeCM32nhwh6I+bNqkDpTJmmINgbsX13JRYsXoTKvOEULjwIGf9Yfq7rm3BzpHdnDNfUzzWBh2Q8RFjntO1HZ1E53L2ZiqsIazX82/bgZ//QgQ9jBTAd39lYHPGQlepKf4M7hndg0//1D9i9872QsIorzpPaVzZCcJsex9NfnoOaP/2O5f8aIcSR699e2INfHemP7mPlXPxBfS9mPfY8/rypBJMnl6BOt9+rPWFt/9l0GOn9KcJaD7z1G3z2RS+C/xEWV5v4fqFTMPuLYyOunpmzgP4+/L5gOq6ov0mjO1sUYgTD41uGhXMihMSfi2q1Xmn+zbglv8RqTyYk7kKUfuELuHnOXFTHrDui7zjb9Lj6tYDnF0vhh2mYN39ueN0kfbvLb8cX51dF9SFtFV/4HJ5F9Xp9uz1aMGfgij/JuXKXovLWAbT9+jC6e7sRzFP7k2v6kXNYmwd/nwu3pHThQcj4x4USL/JRCZ+j/pzXhpYt72XvZPJgMaa2HsLuA2beSRzxkJXC/l1439QCDiGuOFIj2HbF8YQ9V/PrqnF+m7TvQLddgF+Jrq4pbFxu7EpdYgZgO9+81uJB49p52Puymt92CIODh0LrO1eScQi7n9o3Nuc7bYpQ1bgM1Z7JKKtdhgWlXvX3dpS4zeJYtCgUwd+6DwcPyHQUAWlWYlSNNquttQfB4SEMB7tw5EAzeof9aNfrqqktSSomLw9ujxdol3Xb4PcUqngzQd+qXYQ11K6mIz0SquYix62OxTuktr0P7QEvVDdJ+17g7jJ9tCFYOku3Sx/e6koE5TjVNuGdDrcW1gXqC2O2p77U3sIkFYplm8EggnqmCB7PZfj7ZR/VOVfC2qfO3bA6z1YbIRMf1+alfrSmUOT9RqF0ep76vynqL9Pzc8ZX8XHfDHji2MP56quBjmbjbHMc2/d3hd1yuvcbI4BenB/0oMintHV+ZdjPNRK5t2oK9D9SN9U03iicRUe7H8G+Zku4AiJWH+OUpQgjcBcWIdgeu7wIJaVDaLeFU4kK/OeMqExRomSJ4Wi43Xl6Pzr6TYMmUd9KrNw9OBIr1u7p8OYoMW/pQrCwRl00+BFQ/cXvOxfTlN729th9XFTCnaeE1ZoL9h2xjtMWSd23dRGyRF2QLPCqc6cFPT6yTXUFoNdd0qi+gPq8ycVMIQL6okQuBOQixLyBkAmOa9Ozr4ecMiYSY+nzWlCbjxMb38MLatodmI07Qs4o44RkxuZZMQ9rVtcj8K4duQ6Y9hsBicTUD3+1F+7SBiypLVfRnQ8LyhNHYyI8wdisrtsNt4kmBY/Xi2DQiI4sC0VvyZG+Q1Gc3WeivhP1K0KoQmmPCJq3X10oWJF13L618J/F+VAnaj5HxE5Ez48+I5xamIMX9YUF5CLERMoHRcD1GvGR6NevI2VrEmF3l1fCq/6r1oLbgLIceV2jo2VCJjou+UEtmoDf5nR9Xq0i46N7evadG8KF1ja06Lk8eD1B+Hv0TEJS7Ts5VsHzUT0wxVpusFKnayNpOx1AflUDLCc4JZJLKxE4ndiUYe+xLlQsXWfWj8T2kp2HuqqIyLXtDAJxRX2kP+01Iysv30s41dIG/7CKANWPf3vASt9a6dVETIYEZInQKdzIf1siduZlciRtKsImr5Xo+8oR7I0WrxF9i0ialzaWEHaiQ6Jwk/pN2neOilTlr8Lj88Hd16nEODraFpEUQQ+qqwq323aHHQ1LoCVqjiTY83FYnNv9gM4UWBcAhEx0XGi6G7X5XWibUIau8SnduAxPbl2qPTnLV0andFP29HzrEJo9tp/nUszqGP3+a8p92+nmrDxkj2P7szsQqHvUeKsaz9W9L+G1jmrLz3XLo5jd8Wry+6Jq/fcDxv9VTU9rsT6Olg6gdr20rQE6Ikcs7URbt/F4VZN9Pxc4g+OdgyqaLsCoh58AGYj25NaFULEi6tar189kGJen7OWbACVQ4TRrWFASEejpgbvaSosuaTT3ZoPn4FdHskBSpe4uJdKXw9Ftfz/8dmq0rjKx0GqhDEd0MphLp3AT9R3sQl/Qatd9+yzb9FCEqpZ39OWhWraZqG8VtZ6SdUwfpcFm68KisBDeUFQsImm22d+JXred5g1vMy6SQh4lHW5HxIRcL0za/s6/Xmndtjlkzh2Pa+rnmsBDMn0kMsze0zP+fjrTt0TAE9IDUz6jxRfwRgpevJn4ucZ/j0TMK9QHEXnOnfHyJYSQbHFteia5sF5VEvm5zrwzi3SfnbZ1xtPz+2tqUGBaBCf7nngemCYlvBzYlYbJfap+rta5jfULtcRWfHvr8k2D4IiXLyGEOAP9XAkhhBCHYW1hQgghxGEoroQQQojDUFwJIYQQh6G4EkIIIQ5DcSWEEEIchuJKCCGEOMz4eRRHijOYZ0gvHH4HP9mTzEb7xkGe6bSe8+zFrhd/Ycoyjne+iYrnlmOaejV86B/R9s/NVnOa6KIai6yHWbv3hAtDhM/JIFqyLQpCCCFjwKSfbP72FdtuLBHXtEJTIh6st8oI9nyCF7bEesSkgpQilJJ7Fj07M7WrE+PyR1FrFzTo3oFNLwMbtqxChd30buYWbfGqE0m5wBX2jitC+y5+setno+DiSbwZYW0XuX5mx9mAok3fRnGoaEMvup7+e1wwc4nIefjv1Dl4O2NxtUm9QpNDiFk6jqIDNVjg7hylvrAU/Jei81KL2K6La7fpGe1Ak7wPQsj1xsRMC4uw+k7jzdbIUubpcgpvG+ebF7adxNSV9aNWDIpH02NKWANKUI3P6Sbts7oTr9jz2w7Bc9/jloeqg4hI6n1XU0hYxYh9Z0x1dNXeAHUBIuuqZeVqPrMC+yKof4VWPdnCKqL7I9Q+Z6a/+KZuTUz0+hVKGy0k0rXb/zqqAta1wOPN0/VzdanhZP6i4ufauEB82kK+qhZiAmAK0of8TwkhNxITU1zfOpRhtJqEi4M4Z16mTgLj8lji+K86TiIjdmm3z1XP4KjRZno04+xmW3D/Eae9jSiaaxbFIefh1Zh24h/N+n+F7t1We8FfNGL4VdPP/wIqRxXpsSJNs3RtgP6x+mwjjcCj0dZsIT9XQsiNwo09oEkiYHGpWV+MzrfiCNNoJDAu1zQ9bjnWrK/GybfjmJJniXb90c49qUfcdStnY0CJbdrHqSlDpR1dbtoQsiaT1K8VcUamjeMz3NwJ1H87JsL9Jgoq3Sh+1PT91TLTfi1IzyzdxvJVjXZ08fgstxhxr2FKmJAbj3EvrmNpiq4jYJ1aPaSEdhlWNJr2dEhkXL73JZMq3g6s3oQ1I41TM6ZlSzgl/GZrHlakYNEm910bAvszvK8sRKSFN79ipUDnbkBFvd+0q8h1UK+YmN+8gjZZ9+htWkh9DzeYBZEpZzX9t3dM+9UkfbN0C8uGLTZ9HGiz0sJHgpUp9EEIud4Y9+Karil6dobZNtkZlyfHWXPx6R43LgQGzFw8lPg+bwnrT7faxqIGJ87V4AD0Jc/cxZg2SuQaYvffo/V/9SLHK0N+f4fhwTIUhO6/ZkFWx5OJWbowBe4c23w8llxM81rm4oSQG4ub/viu2h/+6kjMIJgY/vgbX8U7/7bDzI0RUypQPwc48R89GC0A0oN3/nYxFs+4BSgowpe/Xgp3fzc6e9Wys7egrLECBYO9ONQZIyaRmD6Wf71avb8cn/1yD37xnlmGc/hC2WLMLriI7qT704+j+/6Amj99CA+svBd3yXTbH7B74A48/dffwSrd1oDLe/4Wr4UGzA7h8jQfFpZPwtmPfovRHjgqnr9YG1ofO2saFBKFPrxO9rsaswc+wcs/9qtWGf18B+6rUlHSFzxYoJaVuTtwrGYh7p+noqsZ5Xp9mXS7ONuleq5U33lNs/H7D/7dElKbT9UXqGklKr9+H2bc1o/+09OAjl0YKtwA3998GzNKbsHNJbWYcc9XcKV7F35/79+h5jtfV/Oy/iC6tmxT/Z3C0JkKzHjo2yiTdjUVFJ7Dp5+Ek+3xzoGI2uwvzlZfmE9w0s7Ipnw8CXAXwjPpHM4NeFA68wrOn7mAz82ikcj92XpUz7wV2n58ZgVyLncjkFuDJYvmqvdXqKkEn3ftM2bkhJAbiUnb39l9BRhAMsP0cfkoTkKcMcweU+PyMTYXT52JYS6e+qM4E+N4CCHXPzcdPnzkh7t3foCjKgpJxFWLXOtrsLhxMWpyM4w8RLTW3g532zt4/aMM3q+RlPD9uDO3HW/8rHn0KDot5Md/He6fO4hd/30XTpjWZEjU9sXaxbijsRjBFCLdlHHkXI0tcoHz59+4A7OnAhc6w5GriO26e+aiePJ/4sxRE7lOgOMhhNw40CydEEIIcZgb+1EcQgghZAyguBJCCCEOQ3ElhBBCHIbiSgghhDgMxZUQQghxGIorIYQQ4jCuzVucrXtLCCGE3Oi4XmsBalevA/WVEEIIcQZX26F2h6sQEUIIITc2Ll99NfIDZxz3GyWEEEJuVFyP1AXw/ss7zSwhhBBCssXVuu0l7DUzhBBCCMkeVyKbOUIIIYRkhmvzluch04Ym00IIIYSQrKDlHCGEEOIwrNBECCGEOAzFlRBCCHEYiishhBDiMBRXQgghxGEoroQQQojDUFwJIYQQh6G4EkIIIQ4zfp5zLb4Tf7amBgXq5YXD7+Ane85Y7SR1bpBzWPfABtw1U14NomX7z7DrtLyuweon7kSFbj6KN7b9Cn3ymhBCrgGTtr/zr1dat21GsjKIV01cVwE7Uv1RfLAeT64sBHo+wQtbTpnGNGmcg++un42Ciyfx5lMnMvwxnoc1P3gUtflmtnsHNl0rI4QE57DumXuwotx63bPzPbz9FlC6cRkeqnVbjYoLrfvx061D+nXkMnv9tBnzz2cG7lq/Qh2sLa6GdL9HhBAyBrg2vRuYeGbp8sPtO403W4OmIQPkh/tB4N2d/aYhM5oeU8IaUIL6zFPWZITVt3aTLiupp8dW6jY0PY6n167Dhpj2pseiy0/GzmeFOs4GKIHb+B5eUMdaruZLzSIRVN2upihh9bSH2jMW1nHy+RBCyLXA5Sv2ABPNz/WtQ5lHQzYHTuCnGUerNivhq+gaadnnW4f7q9rxmhbcV9HqWRUSy/y6apzfJu070F0xH9K891gXKuYbATZ9tjllVSTHaZ+rnkFcsF4lIA9zq4awO9tzO24+H0IIuTbQzzUbfDPgGfQjVkbEgB4dzeaC5Ti27++Cp3ienkP3fpOC78X5QQ+KJGWw91hIaNE0HxXdx8bEBrBu5WwMKNGyBaugdime3HqPmpZhRaO0TIV3CuBV0avVfg9Wq+iREEJIerg2vQvcveVx64d9HFL0wEF85Qlr+tLyy6Z1HJHvRYl5mTk70dZdCZ/6ECST0H3M+Ysdue/aENgfSvP2bd0XSv2+sHMIdQ/a6eJCzIKKPKV920lMjUgjE0IISQ2XjppgIqhxyNmfL8EHL1rTR3smm9YkLPoavv/EBqxeZOYzQkaebsD3H6gx8wloa8bJwUo0rjVRqaHtdAD5VQ3mPvY8rFlaicDp43ouEXt3HQKKV6LO0469kWFr1seThxXPW8Jq31eNpXR6HhAYUhHtAPwX+9Fsr1eejwLdLsgAInVO1t+Zndg68vmkR+nyb6ltfgt3FZsGQggZY1w6DTnYjpaJdNNVBrtsvcca0Vq+MCKtqTjcqS4WgIJbZ1jzCSnBakl9yojWKbPxUFQK9ChO/E79KfCMIiTHsf3ZHQjUPRo9eGnvS3itoxqP6LZHMbvjVbwyWp5XCfX5qlWYHbDTyYaUjycBD/pQNyUyBWwdpwxcsucfqjqNN/U90iHsfmsQDab9SXUo4fuvZ3C8c1BF6gWYbloSMuafT3r0He/BBeTDM+qOE0KIM0za/k8/uvLas68nHdA0Lh/FSYhEWN+E59ev4O3DpikDJNpZ62nFj39+1LRcK9I4nrF+DEWizsUXsnyG1JnPJ71HcSQTUYtA6JlYQggZW1ybRhHWq0p+DdY+sQF/tjzDKE2nHL+JWZ3vZPHDbaWE187qwRvXWlgzOZ5sz2FcTEp4ObArG2F15POxikhIP3X2s8Uak8o3RTRsrJTwncAeCish5Ooxfio0EUIIIdcJrC1MCCGEOAzFlRBCCHEYiishhBDiMBRXQgghxGEoroQQQojD3FRYVPpD8zohf/yNr+Kdf9th5sYIeT7xu6uwvHExanJ7cagzfjUhMraIm8+Tf/oN3LVyLv6w8yN0mXankMdo1t2zGHc0FiP40W9x3br2Fp/Bl757Fp995MF4/CZLWdHZt5Ti7FnTYBNvvyP+bd5RNowPj5/TzfKY059/4w71WS5GWbAZx2L7IuQGxiVVhRyzN8sWMbl+8ZXUTL7F1kwq+DyTRWVfU0noyeevbf3cMbWcS5O2NzZbjj1mfizo3vMKfvziL9Ci576Jiud+BN/DDXoOczfAt2kDcqy5q47UYLYrV9G0wHD6V/iJ+nf54z29psGib8/P1Of4CnZJNTNCSBQ3ffnO9T9E/3toThKiXJXIdUoF6ucAJ/6jB4OmKSG2X2hXPha4A/jwlxfNgjSw/UJ/+XssmPmfOPKef/TtjkCM0r+FBWX34WEd7X0ZhT0f4Oit6/D0mkUovec7ePhr9+KuL01H777D+NS8K5ZZS+7FrRGfgT2f/9VN+FJ1rep7Tbhv3clKbNjyX/DAStV3qF325W+s7Un7bX/A7oMnlVBvwr1LmvDAnzShsNDqa87nyfoWqrB45XR8Ghm5Nj2Ozd+TdcN9Z0Lx/MXw+iOjnLko+PIt+By34vLHzfi8cDFuXQBc+KAZNz/8d6j5ztcx4577MMM3GWc+/g2w4q/hu2Mh8r7zbVRGtqMBRZueQvXXVds9X8GV7l0YSnTCE6G+E1+r6sXL/0cLPnQX4L7GKejO6HuhmDKEsgWf4bwdAUpEeM8QbvnycdT+UR8qa27Cuf+Ygs/Uotzln+COb3SjsrEPM3JvRW/nzcCiDnxlbbtuq2z0Y1J3Ec6rr7mOOItvwqxvHEd1ovXL8tB13Lo8iexbt5+/oCLT4yieCrhnSd/R+zJivyOZcRvu8J4PRa42Iz9TQohr3FRnSodx5RdaiVrPfm2U/poKxWbXmyL+FfWYtt/4uaIadRkZI0xFbZXf8oWNMLVvemyVuiqQvmXabCzspM6x3SYeskuxRm9zKiqwX++b9PV+y4Cxv4vfd3yUmC8166rpfYT9aZ1hABf8s1C0wswKKoKtmNOJtqf/Cq1P/yNOe5ejwizPqZ+F4VelfQ/OV96mKzLlPLwaOfukTU2vdmLaQxlEv2l5347C6Rn46MUqROnNzB5M+bWYUCxCN86hSIwElOgu9JQbc4pFODvrt5gl7YerQoYVH+zJRcUd4b3xzgI+kfbt5epK7Dxy1Z4uXJyHg2b94/gtFooxgvQ9a3qo/YOfqzOl90uto6JN/x7Tvm0GLlldx99vQkjacEBT1gygdZdlEafdcDxl+jUGDxl3m+M4G5iKaRlmr7v3m/KU4l5k7O20ufp9z+PpGDceuV9qGQg8itqI0oC2hZ30FXlJEq/vuIi5Q369MSJ4HndXmHYHufzPB4BlYUH8QoNSkBO/xrCea8bZfb3IKTap464DOCvBKn6H4UEvJs9twNQ5bkz76o9Q+5yaHp2fdVo51vvWEQbL0aHLPk7GpQvDmDJdRZbzziFn5m+NreJhdZ71mgolmMZq8SvL/abNwv9rI4YihCKMiz6FN78HS8z682bq1dTyaUokpb0DRaaJEHJ1GPfiOu79XK8mtjH73pd0BPkvWKPFTkeRvnW4X4zv7cg13VxmHNP3KLp3mKjYmkZ1+Umbd3T0OjXjm99BnNbRrJk2v2KEOX1ivW/HmuHDi8JR6osL0Xlavve/Ra7dvsdr1kzC726L6GMJPjEi3rlN5m9FkfwbWn9GRbmEkKuBS6IQiYK0Vdo4ZFz7uWaEKYIf4Yt6KjCAivn2+V8JX8UAzsconW/tUlQEzkSZLMjgo9dCaV6FLZC+BsyOKmqfnHh9R3HKj8GK+QkM9Z07Vxfe78S0ZSpiVfznaT9y5iw2EWgDipaVYfh0s54bSTMu+1Xk2mAi2xhS93NN5n07Nt+JS5/mIkendkdy6VPr+140JzpyHcG5PAzP/DRJdFqAT168Df78IUwxLRcDOci9dawuVsfy3w8hEwPX+90qKJH7dy9bqcMJwbjxc3WGtje2o9WzyqR0V8HTst3cRzUXPqr9kap2vGY+IxlNbK1rtf/LG8e1H+xJmNTtauBkCsN9E/e9ChWoxN3Sl1x0tb2Of2nxWPN62mTu5woOnqvfvIIzSiS1oO7+e7SdmAWfpHmf+zamnfhHdO/Wa8Xlwn/bg+H6b1tpYZn+4ptmSRp+rgm8by3G6DtxuArHL4RTul8xKdyzJ7zwLrfaigLlyaPw0zNUpHoJ80J9fGLdt5VBVKG23wJ7wvdSLx1XJ2PRYWuZ4xHt1f33Q8h4ZNL3Xtp9xXcseZqPfq7XBhG60T6bTHGy73TOlTznOudEtl6u6SKRVPZ+ruPhO3FNkazQnM4Rxx/vM73hzxW54XHtfXlsfrwzgn6uE4zMzlXF8g3qc/oa6sz8WGKlhLP1c73BvxNy4Stp3uVmsJ7BOrcbcJc9gErDfz+ECPRzJYQQQhyGj+IQQgghDkNxJYQQQhyG4koIIYQ4DMWVEEIIcRiKKyGEEOIwFFdCCCHEYca/Wbo8u7p2+TgwZJbn9+7HKjGMrnGjOxVrvOsJ3zo8/b8vwrkk1nmpkI5ZujxHGc+MO9yHD7ndn+BkBo6D14zCGiyZOQl9n44wdIshFyV1X0T+QB8ufm6aMiHu9hzqmxCSkJu2/t//9MPR/Dmvmp9rxTn863//F3xgC6sgHpI3H8aP/8e7KQmrFF1/eF01ytwdOJbNM+ziGfvEooh+zuHYR834sNuNmlR9Z+MhpRv/djGWL3dl7hWqfWRHereOKbcuwp01wPEsxVW8P29qfgU/+X8ihVVq+i7H/X9SCnd/NzqNJ/dg5yf4UJ3zYFm0X+iZ4+pz+KgXuTWz1QcxBuKqBKkq9xwCuTVYcOsQzg1op1NHcN86C/mf96bQpwdFs27Bxc5zGRsQCLK9mwd/i0DIU05wpu/0EEFvxLxZFSidKdMUBHtl+9HtHle/o+ebkGvFTYcPH/nhaD/M19QsPYFBczxEWOe07UdnUTncvdmIa4mKUqegs3US3Je6o/tJx9Q9FkcM2qV04d/gjuEd2PR//QN273wvJKxiOfekNm2PENymx/H0l+eg5k+/Y5mrRwhx5Pq3F/bgV0f6o/tYORd/2PkRZj32PP68qQSTJ5egTrffqw3XkxnsJ2KksbYIaz3w1m/w2Re9CP5HWFxt4ptxT8HsL46NuHpmzgL6+/D7gum4ov4mje7clViweBEqowRD9eFbhoVzIoTEn4tqtV5p/s24Jb/Eas8bThzBugtR+oUv4OY5c1Eds+6IvuNs0xap/GKpqjQN8+bPDa+bpG93+e344vyqqD6kreILn8OzqF6vHxbASGGcgSv+JOfKXYrKWwfQ9uvD6O7tRjBP7U+u9HMJF890o0+19fknoWhmnpq/AAbUZKJzXd1zbdnyngM2YfJjXw3/tkPQlqFO4ohBu7jmdOH9WKMFsZyTAvy25ZwnbGieX1eN89ukfQe6bXcbJbq6YL+xkHtOiv8rxGnHtpV7rcWDxrXzICUyN6nzMTh4KLS+cyUzh7D7qX3YfcDMXlOKUNW4DNWeySirXYYFpV7193aUuM3iWERYa4vgb92HgwdkOoqANCsxqkab1dbag+DwEIaDXThyoBm9w36063XV1JYkFZOXB7fHC7TLum3wewpVvJmgb9UuwhpqV9ORHglVc5HjVsfiHVLb3of2gBeqm6R9L3B3mT7aECydpdulD291JYJynGqb8E6HWwvrAvWFMdtTX2pvYZLy/7LNYBBBPVMEj+cy/P1R4bS6nigC/OfMOoRMbFzRDiekdGM9vOrHYnz82MfBNwOeON6rvvpqoKPZ2MYdx/b9XWEruu79xmWnF+cHPShSn3fT/MqwWXokcm/VuN88UjfVNN4onEVHux/BvmZLuAIiVh/jVIJfexGDYHvs8iKUlA6h3RZOJSphwZiiRMkSw9Fwu/P0fnT0mwZNor6VWLl7cCRWrN3T4c1RYt7ShWBhjbpo8COg+ovfdy6mKb3t7bH7uKiEO08JqzUX7DtiHactkrpv6yJkibogWeBV504Lenxkm+oKQK+7pFF9ASPOm1wY6D6UsFsXBYRMfFyb3g2gdv3jCbw6xy9jY6Jegjtq3ShfadmNiaWdfv1MiVk+Tsj3qj0dC+Zhzep6BMSCUEeuA6b9RkAiMfUjX+2Fu7QBS2rLVXTnw4LyxNGYCE8wNqvrdsNtoknB4/UiGDSCIctC0VtypO9QZGf3majvRP2KEKpQ2iOC5u1XFwpWZB23by38Z3E+1Imaz1HtQYl+/egzoqeFOXjRijLlIkRHuWoSAddrxEeiX7+OlK0pUtgDdvQbrEx6vgmZSLiw95j2P51opGuibjl4jGaYfQpvb3wPL5jpzdYgenaq11ti48RoUut7NCw3kVENpsW3dbBSp2sjaTsdQH5VA6wkhBLJpZUInLZSvfHYe6wLFUvXmfUjsY3a56GuKiJybTuDQFxRH2n+fs3Iyij/Ek61tME/rCJA9UPfHrDSt8kjqcmQgCwROoUreVUbETvzMjmSNhVhk9dK9H3lCPZGi9eIvkUkzUsbSwg70SFRuEn9Ju07R0Wq8lfh8fng7utUYhwdbYtIiqAH1VWF221br4+GJdASNSdGImerb0KuB1y+tUtRESfNOBEp3bhMRZxLteG1jjifnxP6wU/ZMDsDUu/bCYP249j+7A4E6h41xuXG0HzvS3ito9oyS9/yKGZ3vJr8vqha//2AMVdX09NarI+jpQOoXS9ta4COyBFLO9HWbQzU1WTfzwXO4HjnoIqmC5DpqZWBaE9uXQgVK6JufRaZgpSN8hOgBCqcZg0LSiICPT1wV1spzSWN5t5s8Bz86kgWmDRne+ByOLrt74ffTo3WVSYWWi2UXlTrfhv0YC4d6SXqO9iFvqDVrvv2id16RISqlnf05aFatpmobxW1npJ1TB+lwWbrwqKwEN5QVCwiabbZ34let53mDW8zLpJCjpcOl8eE7PerfXH3Rke0hExkJm3/px9dee3ZOPfeIrimZukJDJrTRyLD7A2z4++nM31LBDwhDablM1p8AW+kYHSfiVl6/PdIxLxCfRCR59wZo3xCCMkW16ZRhPWqksgsfeadWaT77LStM4bZ319TgwLTIjjZ98QzmDYp4eXArhSE1SZVs3Tr3MaacVtiK6b4dfmmQXDEKJ8QQpyBZumEEEKIw7C2MCGEEOIwFFdCCCHEYSiuhBBCiMNQXAkhhBCHobgSQgghDjP+/VxvcNLxPx0/fBMVz30Plffch4LCc/j0k8xKlMijONedn+soSJ3d0kndMRZx6SIGBJWAccu5+kgpyTh+sWJ0sGDaSNeblD1uCZk4TNr+zu4rELeTJM+7XtMiEokQv1WpdNTzyajlCeMj1ZKkKpCFlDnMzFFHvFUfRa39zGX3Dmx6GdiwZRUq7KZ3M3eRiVtAQazr1s+2nre9eBJvaqed6OMB+rF74yG06NcRy0Lrp0MDijZ9G8Wh50p70fX03+OCmUtEzsN/p87B22j752bTkhmpF5FwCPFzxVF0oAYL3J2jlEAUIWlAmRTIN7V7tVhUe/VSGymUP1pRei2sdmWkUL/WMsDuP7o9Xr/Sj8dvVzsSofXB3ptU9iN7ZJuFCNjnw0bOi9Q4juMGFL3PhEx8xs9zrumIqwir7zTeDFTjIU97huIagRarfDSHxCh1mh57HndDBDXGAs5GXGbWe3HgmZeQib7GE5a6Z5bBu1Oce8Qebym8B+TCQAS0GCdGHIO0i4VeNk4/Iq4rcHlzrKDGiG7XHrT+t3fMTDxxjV7//P/6K3TvllcS6S7HNN06Urivtrh6fLcjp+djnFdiMK3/aEJXnJDlXPtZeMuAjrjF6xMITQwhuzdbeKRvX7jPaOE1xKyjiRIwS4hDZQVlWdkQjiQpsq/3o9TU6pY6yy3nMM0nhS3LUebxo7cvD2Wl6lNqFVebaOGGuAjJduPtl0L6rsKR+OIu7ykPjnT2IWSCMjHvub51KHtBjeXiIEa3Y48lgbdqLA7Xbm7ZYgvlEPzJfrGFB4sxtfXQGFnoNePs5r9C69My/SNOextRNNcsikPOw6sx7cQ/mvVtYQUK/qIRw6+afv4XUPkX37QWXHVELNLwc9UerUpkEOlVGo0UwEd7cmGV7UZZyQm2tZueSdX/VIlpWV6EbZyF2y1OM+rYVDTtjzEAiEIJXJX3rDYuCDvdTIHbUw5vsA29w+p86JrGsrIItxybcbTpu6zdcjRR+x7GLvofF1k/jvkAIRMVV7ho+w2IRMBSSH99MTrfysDEPIG3qqbpcauo/vpqnHx7jEpMqoi7wXMS/x5KZxdihRyPTKb4fel0sW2R6NW0R5gZpEcZKp/7EWpl2rQh5J4i0aluey4ybRyf4eZOoP7bqI0Sz2+ioNKN4kdN319VIeA1Iz0/VxvL+i3OjV8VKYqB+aipzsJC40ATJhP/U3f5Anj9xndVcwmn2nrUl6DB9DFK2lUELqdcRZ0RRfi14InlnHopqe+2i0okhzCcNwtlSnDt/iJt7Gxbumgiiv4TcgPg2vSMOKysGbeG6WPj22qQCFjbyx1SQrsMKxpNezok8lbd+5L2RN30zHZg9RgY0tup7ND900i7vP1o8SwMOe4U1ObjhFm2OzAbd4SceNJB0rUmutz8ijVQZu4GVNT7TbuKXAf1ion5zStok3WP3qaF1Pdwg1kQ0bdMEanlq4dEYkq00vBztbBEIzaq1GnOaqVnKaQ5LTGKfn/6/qcq+o01LJc0sPredeg+1OVdtR2FWxG6JdyRkbl6v6zrL9TLqgpVk/aE7UdARFb+Ggu6K1ECGmljFy20YWL9YmOIct8hZOLjsqzEpmLa2LhvZ026vq3ZeXraZOetmhxT7D4b/1OJuJPeI54K75Qg/Cra6Ds3hAutbWa9PHg9VrvGiXM1OAB9yTN3MaaNErmG2P33aP1fvcjxSkX+32F4sAwFK6xFWZHV8WTi5yrYpuJmVqOEWnxSR00HW4iQRpO+/6lOP8ekfCWiDqWBo1KuRkT1FCcy7z+q07yCCL/fry4QlMhCxFT6USIYvsy10sPh4Vuy7+ZlJKOkfPW+ynYIuU64qbDokR/e+ydFOL/vAxz91LTGcFUexZlSgfo5wIn/6MFoAZCO2v52MRbPuEWFZUX48tdL4e7vRmevWnb2FpQ1VqBgcJTHeUwfy79erd5fjs9+uQe/eM8swzl8oWwxZhdcRHfS/enH0X1/QM2fPoQHVt6Lu2S67Q/YPXAHnv7r72CVbmvA5T1/i9dCA2aHcHmaDwvLJ+FsCo/WFM9frD037cdQRCBXfHcuir+Qi9l639W03IXu9ybj3q134D7dVoSBneZ4jp7GlXuX4+F11nG6j3+Mn//LZ1ZXqZ4rFZvnNc3G7z/494gfVYX6vtzUtBKVX78PM27rR//paSpM2oWhwg3w/c23MaPkFtxcUosZ93wFV7p34ff3/h1qvvN1NS/rD6JryzbV3ykMnanAjIe+jTJpj/P4zshzIEzB7C/OVl+YiEdxUj6eBLgL4Zl0DucGPCideQXnYx8ZiUKiv3pUz7xViYYb3pkVyLlsPULj8TWi8vM2Jcyp7cOk3BkouuW82q75XNylqLz1M5yL98jKorlq3yrUVILPu8IDlRa61UVBzPaGJ01BdbVZf0YBBts/RM+AWTgC+3ik7wq1P6fQcfICcorL1Ne8D78vmIWcYBcCXyhTa55Fn9pu0Zx5qNT70YZgrn2+PsMtBVWonGX1U5o3bD1i8/lk5M9S7aZ/+1xpEuw/IRMZ/SjOaI+KjMtHcRLijKfnmHqrjrH/aeo4c67GmtRHC0+M4xmJCNvoI4rjk817xwGSPq/NQ99E3X9CEnDT4cNHftjcZeYScNUi1/oaLM6miISI1trb4W57B69/lOlVsKSE78edue1442fNo0fRaSE//utw/9xB7Prvu3DCtCZDorYv1o5BEQlHztXYYheRmD0VuNAZW0RCRe+T/xNnjprIdQIcT2KGMOyahbnFn2dQSGEIgWtWLCJL7Ed2fn3C4X9nhFx76OdKCCGEOAxrCxNCCCEOQ3ElhBBCHIbiSgghhDgMxZUQQghxGIorIYQQ4jAUV0IIIcRhKK6EEEKIw2hXnM1bxqCwPCGEEHKDol1xuhHA2THxRCOEEEJuPFy+tUvhaXkfSUoLE0IIISQNXE11ARx447iZJYQQQki2uCq6jzFqJYQQQhzE1bprp3lJCCGEECdwbedAJkIIIcRR+JwrIYQQ4jAUV0IIIcRhKK6EEEKIw1BcCSGEEIehuBJCCCEOQ3ElhBBCHIbiSgghhDgMxZUQQghxmEnzFi65Yl4n5NV/+K949Ht/aebGiOI78WdralCgXl44/A5+sueM1U5S5wY5h3UPbMBdM+XVIFq2/wy7TsvrGqx+4k5U6OajeGPbr9Anrwkh5Bowafs7u68MtryK55IU779q4roK2JHqj+KD9XhyZSHQ8wle2HLKNKZJ4xx8d/1sFFw8iTefOpHhj/E8rPnBo6jNN7PdO7Dp5WtUUjLBOax75h6sKLde9+x8D2+/BZRuXIaHat1Wo+JC6378dOuQfh25zF4/LezzqmeCaNm2D7sP6Jm0iNyPyP2zmIG71q9QB2uLqyHd7xEhhIwB2s81UHc3mkzDhECE1Xcab7YGTUMGiAA8CLy7s980ZEbTY0pYA0pQn3nKmoyw+tZugmVEr6bHVuo2ND2Op9euw4aY9qbHnseGiA8gdj4r1HE2QF2AbHwPL6hjLVfzpWaRCJZuV1OUsHraQ+1pC6tw4AR+at7/ws4h1D0Y3mbqlOCOKvUZSx/bTgK1PtSZJYQQMt5xoWk+Kgb9yDD2uza8dSjzaNVGBCDjaNVmJXwVXXg/NlL1rcP9Ve14TQvuq2j1rAqJZX5dNc5vk/Yd6K6Yry9q9h7rQsV8I8CmzzanrIrkOO1z1TOIC9arBORhbtUQdmd7bmMJDGVwnk/hbfvzOTCEAd1GCCETA9fm+cew6dnXwfr9GeCbAU+cCxNffTXQ0WzO6XFs398FT/E8PYfu/bDMEnpxftCDIp96ufdYSGj1xc4Y2QDWrZyNASW2ttAV1C7Fk1vvUdMyrGiUlqnwTgG8Knq12u/BahXdZ4JEwLoPdc2QrViXbqzG1NY2tJh5QggZ77jexyps/sE6yG/8eKTogYP4yhPW9KXll03rOCLfixLzMnN2oq27Ej6lrr5iD7qPOX/PVu67NgT2h9K8fVv3hVK/0anbQszCIat920lMjUgjp0O4/9OYs7U+45SunaaOvt9KCCHjG9fel19FK+rR5NQ9Poc5+/Ml+OBFa/poz2TTmoRFX8P3n9iA1YvMfEbIyNMN+P4DNWY+AW3NODlYica1Jio1tJ0OIL+qwVywzMOapZUInE48YEzYu+sQULwSdUpI9kaGrVkfTx5WPG8JayKBKp2eZ1K3A/Bf7EezvV55PgpCKV0ZQKTOyfo7MxLbEGkcj1wQ6Pu/2Ua+y7+ltvkt3FVsGgghZIxxAWWYlj+A8w7fZhtTZDDSVvXDKyNJyxdGpDUVhzvRrf4U3DrDmk9ICVbrtGUhMGU2HopKgR7Fid+pPwWeUYTkOLY/KwPCHo0evLT3JbzWUY1HdNujmN3xKl4ZLc+rhPp81SrMDtjpZEPKx5OAB32omxKZAraOM5S2VdNDMnBIC9gQdr81iAbTHp3SPYPjnYMqUi/AdNOSEBlw9v9v71yAo7jOfP+XAKPRw9IMQk8koYcHkEACAZExzgqQsXHK8ZJgTCCPwnG4MTd2XScuOxtvqKKKWrJrNnFuxVt442ubG+/1BmNXNtQmC4V5OZgYG4tIIEFmkZA0lgBJzABCHmFj657v9OlRz2jeaomR+X5Ul7q/PnP6MUP/+zt9+vz1OraXwrXjxFCTbqTHQx2xqIez/H61uh7ZKG4CYqDrjBNXkAZr2B1nGIYxB/kqTsfep0Ne/OPyVZygUIb1IKwfvoS3TqpQDFC2s8baiOd/16wiN4sojme0X0OhrHP+lRG+Q2rO9xPdqzjUElEJt/edWIZhmNElkV4fCZtVjRVp5VjzxAZ8d0mMWZpscnwQ09t2j+DCrTUJr5nuxM6bLayxHM9Iz2FAVJPwEuDASITVlO9HG0SC6qnS3y2WqKZ8NYiGjtYkvBg4xMLKMMzYET8jNDEMwzDMFwQeW5hhGIZhTIbFlWEYhmFMhsWVYRiGYUyGxZVhGIZhTIbFlWEYhmFMhsWVYRiGYUxmQmZW3mY1H5S//er92P2fe9TSKEEv/z+yAktq5qM8uRMn2tQQfPRu5JolWCTi+Z56nO7WwnGDYb8X5Q/gvTM9asUtQu3j2HJ/Gg4eP6cCsUDv0a7Dyi+Lc1huQcdfnOhTawJB77muWy7K1tiR3HEK565RlN5zXYkV9D1EUEe8YSlYiBnpl9Fz9VMVCUYWSmqKgM4eDKjIiMksR8WU/gi2zTBMpCRu2boJq+Nl1P6+Zuz81Ut45dBFFVB89C6eF/FIBh6g8WhpqLxY3Vwk+vB9zw4fkl+r3zAQ/YV38YrYt+cPdapAjITYZsTY1+EZfRhGMZnmCTsm9KFhlziPxkEq1DCXT27zNQ9o+J0o96vdaPBRz2a8Rd/DruYwtnqxYykoR65FE8KSTBU0iSTLZHg8H6ulEFgssAz0myesAqvNFmbbJOh3Y4E+VRVhyGZfOx8UN/ucMMx4ZsLJ61/a/MCqOeg5chKXVNCfMclcUwsxrww4659xZN+BRbbLEWWEJHxljqNoyyqApbMVp2MZYEk3Ym9PQ4XFjff+JNMiDbFu7ZSLaJggLoT7LsDnFiCK/RxGqG1GTB02PPVlDOx9Gv/8yj4c3L8P9e3aGjJf/97X78WyunuxMNOJd5t6RWwTvlRaibXfXC3jZTcCl9fiM7H6Jz/G2q9osWV3fC4y1clarDwDSC/T4nV3ItP5DpqD/ZCCkoriucXiy9ezUAEJK5nZ/+kzVEz7BE37XH6ZaIDPEMF+RyMmGVOLMzDwUQ8m5oi/zjCZo8gGF8yZgbxphcjLTID74hXckCI1D6UUoyllAF0JRbKcjUTbpsWtib3Bs8iMfBRNug0Ty2bIeobKJiO3qgYzp1Md2Rh0deHaDRG2FKFi/hwUqW3q5UkQ584qkTGb5TpcH6nygcgsQmmCE8cbT6OrsxeDOTNh/awDbqHHVE+FpRudCUm4cSFEHQxzi5EonV1Qiqp49ZyLgoat+7yWajETzIidLvY1fWqAe5Mxw/xd+sDuGT6UZe3juAd7QMNckkG7u2q1aqm4HZUlLs3Qfe+QWbt9zSZDeX1oTDIo0JY18/e7RB0qJj4LsV1t3RblVWsCppjZmwQJVE018pNsKBUZWqmV/pbDqlYPg4S1FGg5dgTHaWpoh0eKnzjxLVqsqeu6yBbFXUFvs1h2wDXgRJMq3+QMnkVaLCki1UyBp1GUbXQCtqkii6S6KwCHXrcIZyaL0kLMK7PgorIi3uKGlqFSM7CtW21PbBsiE/Zo9QeCtin3VS5MhS3JBXevmKd6LO047vCIfejG5RB1MMytRiJq70GlzxitzHBSsPShNNTHy8U+AOQD2+ce3jRdO6vI4A+7H4cbRPKjWp47jiqT/PMiK7Rmw46ZqCoBGg8M95Ml0dWamx+99X4vnna0CjF0kTC2uODpqhei1AyhVQGx2lLQ2ei3PnM68j0OtJIoCZJEpurqVSJKTb0ejxDg8Mjm464mnKfCKSna56TgTUZ+pdZsS8LZKgTaUlAEi15WCHCShURRCHG+2D8HCb6Ati2UMtixELRNS1611iQsxVocG91A2HqFsHZHtf8Mc6uQuGWWC43jqeeHYkxN1KVtWyaW0vO/7Xd550f0XHcUSLPmqzmTsa/Dyio33tYz13H4e4kd7XljRd5k2EqFuJTapNAEf75IIjY8E/TJ/kSdVquhjBBJeNeFQhPILpXZ6nVaMrMAKfhahqplyn7PcUmAKUNFKixJQ9uWnw25bdrmdXGzoOo+9oEQaxJom7iLsCvBLYCF5u2iLoZhJImbXryIjDQ3us1qzhsjojVRH5FhNjXbbtynpqNouNaLg2I+dBO0cpIZI3Nxx4kW9BVSc60KKM67r3qbfOm5bG0VQnj3nkFDK1C5TC9voM8F+TF7NYqNmas36/UnQsP5MWBkZukiC2x0wuN2CGGpR6dba77VM9DApAhBUrPD0JqHhTR5kU29ESGEUQqkhp79ejz9oo5UFQ0ENQ8LAVRLXqhZV9w0hIa26d/k+zHON+hiqzU3y6yesliGYSSJtY+tgLXhbcSL69xI0AzAKbMECup8e5lGbJgdyog9KqIwFw+1zUjNxR2v47m9blSu9+0t7Ni5BW9jhYqtAPaGfi7q2LkLjVa9vOpxLJ/Lz9PM31cB52iHdIzrfHqeR2o4H4xQZvbRMWKzdJFZelzU/EnZX7jmTyE8nf3eJtoF6tmsp1d8XjatVsPSSc9Yh0RyaJ0oHyr7y8yEzdv8asiQe9vQaVFZpKEOt8ulZds1RfC0iBsE+dluuN3as+MF+f1okc9+gz/j9d1mILTMVug7wzAGEl7Z8q3B53aeUYuBualm6ZS5lbWZYFo+yobZgfaTYnFjLj72RG44H8T4PCRBPsNm6QzDxAGJ4YR1TAlm9D1tcURNo8EYVcNsuphT8+cS4/NO1SQcJ+biY4/WJByd4XwaqlZH1ozOZukMw8Q7bJbOMAzDMCbDYwszDMMwjMmwuDIMwzCMybC4MgzDMIzJsLgyDMMwjMmwuDIMwzCMycS/n+stzpB3aQ487/+3rxNP3PIgCp/7PoqW34f0zB5cOhWbKQG9RvO9ry4a5uUb2M/1i4HVfjfyEjTHmdihIRtN9nyNGbEvVZkYkK5AUG48GfDEvG80wtVcpF1lBx4mvknYtfv3g407Qo/ac1MHkQgG2bTR6D3OUzE6ytAIQLNRoJac+2N11CE7NsNg9uQQ8yKwYesKFOqhvbq7TPSQkJSd9R1Agqz1luo7LvDuO430tL4Y6dfO4Q2DyYCxfGzHWY2sTd9Cjve90k60P/PzsL6pSWv/QZyDt+D493oViY1A5yC2gSciJLMcJWhGK8j1pS2kS410zNGHFqQhEtUQgNKKTQ0tSAP9h6xDIYVV3ERoZUlEyIlHWwe40GI0C9C3a9imDtVjdQ0N0ajvCw1RaBy2kcqVSmsfGjuYxgyWYXMxDvBvFnTsdqBVjaHMMPGI5ue6vhYT978PZec5jJvq5xoIU/xPr+H0H1rxHk29ibjz60UY/IOfR2sE1D72YywaEIL6T/8qPVQPHj8noudQT/M0OafinodCn99Q5MyaD5trKGsjcr5cionH9+HVbdr+S9/aYP6nIv6Vkk68+HcNeM+SjvtqUtExzBs1HLlIqZ2CS5s2i8/uxcV9fxaXY4JE92mUPnAfskWWmm2fjIsf/FWuISbOqUM6ThsyV9/yk2/sxZU2ig9lutnLZ2PAW79GoHNAY94G9HM1Aeu06UBvFz5Ln4pB8Td4hiQEsCIL7g8/RGvnAJLKipBEPqoZ5ZibfRlNH55Eh4inzcoLm0WSAM6Y1IqGc5dVIA9FU67CIevogCdlBvKSlXerFNYUuLoSMelGp6/3qxCz2RanEGhq+SGBrhGC3YruSakGv1UtntVXj4bmFnR1hjlGex7SpszBzLJUDCZOx8xZ+covVqsnpIeszQKPux03cmowu8yvHEHjG0/pV8egMm5XMvJyM2CdNQelKQkYnCa2naN74gpuiL/pdqR+HGq/GebmkohcG9JQBDuNITteMMP/1J9rfYje5rwO9sJ2vP3icIs2H/RB70eTYP6nFNfPlbMvbLYZHfXo3vIjND5D07/hgk1csGeoVQFIWrsKGWf/TZX/EToOavH0H9Rg4GVVz38BRT94UFsx5mgOOKVWzb6tIs8m/i5E7rAR73VoAHuVTZLtmvRFFYJjsHSz2mmQ/lAD+RNZyM3rR4sxu9Pt5OQCuehcVxZ1NAh/CrpEFjsg6vTa1knUtp16PdoA+01OsXsGJxzd/i6SbFoO3G8tgE2U7xwQ58PSLgfq1wQ6cg9ZtyrX4p4Mo0+B5uyj9oPOIY25LI7dlpeljYcsti3HYtZKeKFjidjvgGFuAolb7nKh0TgQ+60EZcA0OPz6HLS9GYNXqz0b1mDCWfu4Nvj9+lKce0v5ppqINCagfd8+D1UqFo6qumJcFWIb9XFK8lH03C9QSdOmDdBbK6npV8aeMzYbB2agXqSp876FSh/xfBDpRRbkPKrqvn+UbPMiohutul+r1wknkuZSEpQCIQYktMpFJqVcDqJvFRl3JwlGqDoyM2HpavPxVJVOObqlWw2ZrNN+kPhnwi2bh4db21kKKkSGr/u3GqDB9w1GAVabwS5OTBUFJIpBkDcNZHMnZpNc4gbgmrZdROMhK2sSDB/kn246vMvqhkKqpsh2z4ubEmr2bu1nv1hm/JG46Wevi0tB/DKqvq1eK7kTQmhjdL9Js0F5j/ty+AVskv6nu4BVRreYkdOwVbe/24c3GlOw9NmAe+ADPXetdh+N8bkyQc9ZVXa55SXtQj1jAwrnuVRcZK7h2pr/+hIcVLb5Dimk9rXVaoWhbpr+ZbeKjyWUiQmhUH6tukdpSOEhqAlUip96nklilFQgxKZXZmqt/bqPanB8sjcFebFKGzdRh6xH1E3CZRP/pKNNDT2PpXnNdYcEPlcJnD+yflePEidN4Dq9/qwOeGxTtWfGdJOgBHdBjcrYSfDITJ2OS5qqa7Z3g1F5yOr429f53iCQ6JM/rTx2V7fcb/o73O82GRni/oCdeJh4JpE65GRp/zvjkmh9WyP1Pw1NhF6kZLfWV4SaNTNVIBLUoP4j9XlVTLVacMV9VS0FQojvNk1YX93udzUy41z1XdWej86Yj4wwmauXgz9H4391Isk2TSx8hIG+fKQv1VaNiBEdDzWhkhWc5tfa4qYORNSkGqLplDrryCZa345CsvORbOIVgm0XGW1n6I43JCa++Gd8Gh7nB0NiJjJs2YFKdXKi5mcE2Y6P4PkhBdubFQpx1utXGfswgSORFeUvx+Ihqz47tI+aUEvxFeeSOldR4qofu57VDrv5kKLt7zHLMPHFhMzVP9q8tvwKPnhlHHVoos47P52P+dmTgPQs3PlAHiy9HWjrFOu6JyG/phDpfWFe51F1LHmgVHy+AJ/+6RD+uE+tQw9uy5+P4vRr6Ai5P71oPvI5yr/5ML5Wdy+W0XTH5zh4dRGeeeo7WCFj1bh+6Kd4zdthth/XM+yYXZCA7gherQnUmYey0LXraL9LUXz1FF58np5IUe/nRbivRGRat1lRIdblW1pxunw2Vs4UF+vsAlmeJhmnTlCRnivZoakYn73j29EIl8QPqLYORdRB6Y5e9F7IAFoPoD9zA+w//haycydhYm4lspf/DQY7DuCze/8B5d95QOv8dEcf2rfuEPWdR//FQmQ//C3kyw5Nw1/fibhDU8THEwRLJqwJPei5akXetEFc1jvQBIIy1lk5mCTkwUYdd8RkTexFz6VeXEucjhmzSkQsFzfa/YV3OAnJ2ciadHmoY5LszPQpekJs3zJlOtL0zkw+nZiGoN7A1InIJkTKYhP7mDKArkuXce2zDMycNUPuc9aN1pA9edNy8lXnrulI8rTDfVu+kM1u9Fy4jMFps1VnJr1uIZQJqSgtpbpTReZ9HpMmeWRcMikDWdNLtI5OsrzIUnNmopTqSHCiZWCKEN8+TLqdzv2nSJ2WgoGPejBR7YO3M1ZFMTwOcVPBnZmYOGb8vooTFMoMR+5/GrkXaQxE4fMa+DUUszDnXI02kb+KMz6OZzjGZ6nRMpLPjj98X1dimPhlwsmTZzc3iwwkFGOWuc4rx/yRDCJBorVmISyO3Xj9/Rg+L6Em4ZVYnNyCnb+tj/KVlXDQxX8dVs7ow4FfH8BZFQ0FZW1zK0dhEAlTztXoog8iUXw7cKXNfxCJGciZ/AkuNqvMdRwcT3BExkfZbs6NoSwvYvrhjovBIkYf/f1dxwXDq0cME6ewnyvDMAzDmAyPLcwwDMMwJsPiyjAMwzAmw+LKMAzDMCbD4sowDMMwJsPiyjAMwzAmw+LKMAzDMCbD4sowDMMwJpP4TFTj4jIMwzAMEw7OXBmGYRjGZFhcGYZhGMZkWFwZhmEYxmRYXBmGYRjGZFhcGYZhGMZkWFwZhmEYxmQS06oexZatm7DariIMwzAMw4wI9nNlGIZhGJPhZmGGYRiGMRkWV4ZhGIYxGRZXhmEYhjEZFleGYRiGMRkWV4ZhGIYxGRZXhmEYhjGZ+HkVJ2cxvru6HOli9srJ3Xjl0EUtzkTOLXIOq762Acum0VwfGnb9Fgcu0Hw5Vj2xGIUy3IydO95FF80zDMPcBBJ27f79YOOOLdjlUJEAjJm4rgD2RHpRfGgenqzLBJyn8Mut51UwSmrK8Mj6YqRfO4c3nj4b48V4Jlb/5FFUpqnFjj3Y9OJ+tTDGBDqH+jGqRRiOterZ5VhaIE7h/n14601ttU/5WM+LzzY9aNhxBAePyYWoyNt4Nx6utMj5K41H8er2fjmvkY1l65eKg9XFVRHt74hhGGYUSHytAahctQ7jaoAmElb7BbzR6FGBGCABeAjYu79XBWKj9jEhrG4hqM8+rU1KWO1rNmHL1m3a9FidjKH2cTyzZh02+MVrH9uGDbVyVuK/PGJIJDfuwy9pMghrmeMoGq5pRXSq6nLQtoPKinUoxiJxjqLm2Fm8qm9vfz+qHipDnloVOblYVCK+Y6pjxznxI7WjSq1hGIaJdxIdJ1rQpxbGDW+eiD1b1SEBiDlb1amDvbAdb/tnqvZ1WFnSgtek4L6MRusKr1imVZXi8g6K70FH4SxQ+PDpdhTOUgKs6nQcVoujRMNWQ7ZqoGGrnmX2w+WWoZHj7o/hPJ/HW/r3c6wfV2WMYRhmfJBon1eKNPdFhGgVZoJhz4a1zyVkwBc6p2itV+f0DHYdbYc1Z6ZcQsdR1QTfict9VmRRk8Hh016hRe0sFHachqnamlqMh7cvx5NiemRjigqGQWT21dZz+HMAAY4EatKl7T0p7hkOjvBGKG9jKW5vdIhMmmEYZnyQ+O0q9/DMK47I+tpx/M0T2vSlJddVNI5IsyFXzcbOfjg6imAX6mrPsaLjtInfh7GJduMpXK2ch6U1al0w5DPTNNSPILPv2n5EbfMCyrbPi7lJVz53tbb4PW9lGIaJbxIbd7xgbpZkMt2/W4B3fqVN7x+arKIhmPMV/PCJDVg1Ry3HBPU83YAffq1cLQfBUY9zfUWoWaOyUoXjghtpJdXqOfZMrL6rCO4LZ+RSMA4fOAHk1KFKCMlh4xdiyvEoalJwOzX3hupcRM+zSVg3nvDLFKkDkTgn6xfH8PzUQBTHQ8+FSVhH+gggb8k3xDa/gWU5KsAwDDPKJIbqJRy3UGa1XVx4qSdpwWw8uf3uoWzsZBs6xJ/0KdnaclBysUo2W2Z6m01XeTvvNOPsR+JPujWMkJzBrp/tgVva9hk6KR1+Aa+1luLbMvYoiltfxkvh7mCEUF8uWYFit96crIj4eIKgzpVsol1PnZU00dSabe9CVao4hXVi3TbqdJQizqM4H8jEUv0zMk5cxJm2PpGpp2OqXA4BCbT++e2lcKltSiI9HmqWLhB/5fer1RVxk7YfXWecuII0WMPuOMMwjDkk7Np9UL7n2rH36aACEJev4gSFMqwHYf3wJbx1UoVigLKdNdZGPP+7ZhW5WURxPKP9GgplnfOvjPAdUnO+n+hexaGWiEq4ve/EMgzDjC4TTp5s2nxw/z7Ut6tIAP72q/dj93/uUUujRGoh5s0rx/ya+ShP7sSJthiesdHFf81CWBy78fr7sT6jowvxSixObsHO39bf3J7U0R6PGecwICRk67ByRh8O/PoAzqpo1Jjy/WiDSKxbPgM5kz/BxeZTOCdfJ9K+txUVU5H0SQ+a/uKU3x3dJH3vq2W4cug3+GMrlWMYhhl92CydYRiGYUyGxxZmGIZhGJNhcWUYhmEYk2FxZRiGYRiTYXFlGIZhGJNhcWUYhmEYk2FxZRiGYRiTmZCZlbdZzQdlTN5zpZf/H1mBJf7vaMp3I5dgkYjne+pxulsLxw2G/V6UP4D3zvSoFbcItY9jy/1pOHj8nArEgnqP9sviHJZb0KHeUQ2G9p6rKFtjR3KH33uu9D1EUEe8YSlYiBnpl9Fz9VMVCUYWSmqKgM4eDKjIiMksR8WU/gi2zTBMpEzY/n+2b850voPmSyoSgDEbRKKwB7//9X/gHePgB9l3YNHEk3j+/+6NSFhpPNq160qRb2nF6VgHV6Lh+56YgzurPHjvT7rhaQqWbluClV8vxZ0P5MHS24G2ThG+5sSJ9+vxnicHi2yXYxfXgNuMEvs6PPPUd7Ci7l4sE1PZjdCDg5jC9C9h2dTeEYprKorn5uHi7t/g348YRJGGbvzpfCxZkoiOfS5v/OIZcb7f70RyeTFwVhfXHpym76HDgvIyER4FcbUUlGPqpz34LHchCm/rgvtjtcIE0nJKMLGvJXydlkzkpX+KnotXcEOFRop12oww2yZBn4fSaYXIoykzAW7avqUIFfPnoEiPpwyg65JZA5cwzPhmwknbis1r7ytD55GTCKavYyaugS6KJK4RipZuAN6WVQBLZ4ziqhuxt6ehwuL2Cl3Vs0sw6/xRvLj5DN6zTMHKe1N9LvjR7OcwgmwzOuqw4akvY2Dv0/jnV/bBOOoWma9/7+ua4C7MdOLdpl4R24QvlVZi7TdXDxNiY3ktPhOrf/JjrP2KFlt2x+dCTCdrsfIMIL1Mi9fdiXA3aoEhcTUKpYCElczs//QZKqZ9gibjuZYE+AwR7Hc0YpIxtTgDAx/1YGKO+OsMkzmKbHDBnBm+YuQvUiRGCUWynM0idNOmxa2JvcGzyIx8FE26DRPLZsh6hsomI7eqBjOnUx3ZGHR14Rqpr58A6uUpU547q0TGbJbrcH2kygciswilCU4cbzyNrs5eDObMhPWzDrhvE/vijXewsDKMgUSyOBP/878Qfq7BDMCjIqARey7KCnpRL23P1OD2qWnhB7CPFDPM36UP7J7h40PXPo57sAebpHE7mQysxmpp13M7KktcmqH73iGzdvuaTYby+njTZFCgLWvm73eJOlRMfBZiu9q6Lcqr1gRMMbM3CRKommrkJ9lQWnM3Sq30txzif05gSFhLgZZjR3CcpoZ2eKT4iRPfosWauq7D4xF3Bb3NYtkB14ATTap8kzN4+mqxpIhUMwWeRlG20QnYpsIi664AHHrdIpyZLEoLMa/MgovKiniLG2Kbom5qBrZ1q+2JbaMfAx6t/kDQNuW+yoWpsCW54O7V4i5XvD2nYZj4IO79XOMK6fZyF2zHjqLhWgps4XxRxxC6SepzUzu1L7Wzigz+sPtxuEEkP8qAtuPo69pN1XmRFVqzYcdMVJUAjQeG/x5IdDXnn0dRmaaCtwqedrQKMXSRMLa44OmqF6LUDKFVAbHaUtDZ6Lc+czryPQ60ClEikkSm6upVImqxwOLxCAEOT5Jlsth+E85T4ZQU7XNS8CYjv/JuLBDiT8LZKgTaUlAEi15WCHCShURRCHG+2D8HCb6Ati2UMtixELRNS161rHuBFGvt2ChuK9W2ucCepRVmGEaSuGkvcM/Wx1GrAuOFsTdRzxQZax/e2Khnx2F8UW8CadZ8NWcy9nVYSTdheuZq9sPMuIaacoVg5SkhKbVJoSkhZ76AkIgNzwR9sj9Rp9VqKCNEEt51odAEsktltnqdlkwhbFLwtQxVy5SVEFOmKgsLAaYMFamwJA1tW3425LZpm9fFzYKq+9gHSqwBt8qUjx+rR6fI7nPFDQPDMBqJOHwaHbAiS3P2HjdEa6I+MsPs8zjrBJzHVDPlQ3ZUoQ+hn65SD9ixMxd3nGhBXyE116qA4rz7qrfJl57L1lYBl4O2QJ9BQytQuUwvb6DPJc6CwF6NYmPm6s16/YnQcH4MGNl3L7LARic8bocmIm6t+VbPQAOTIgRJzQ5Dax62qSVCNvVGhBBGKZAaevbr8fSLOlJVNBDUPFwgPusHNQ+Lm4bQ0Da7cdnvZsEHysoNgs0wDIkrPavra0HDF+Cha2ADcI2IDbODGLE3bD0ltEkZgAvtORj2eWAU5uJBtimJ1Fzc8Tqe2+tG5Xpl2i6mDbUivHML3sYKFVsB7A39XNSxcxcarXp5rQ4ycj+HeZr5+yrgHO2QjnHd1k0GcY/UcD4Yoczso2PEZukis/TQs0WZ/YVrvv0Y5zv7vU20C9SzWU+v+LxsWq2GpZOesQ6J5NC6MM2rmZmweZuPDRlyb5vIHO1qe0N1uF0u1WxbBE+LuEGQn+2G2609O16Q348W+ew3+DNe320OQR2ivNsT9TSFaCZnmFuRhF3/7xeDr/1MPXsLwk01S6fMrazNBNPyUTbMDrSfFIsbc/GxJ3LD+SDG5yEJ8hk2S2cYJg5I3BRGWMeUtHKseWIDvrvEL0ubtjiiptFgaM2Ci4FDo3BxpYs5NX8uMT7vVE3CS4ADIxFW2ST8IKa37R5nwqo1Ca+Z7sTOiG+K0lC1OrJmdBpEgs5LlU/HKtUMvboc6SpCjOp3zzAMEwQ2S2cYhmEYk+GxhRmGYRjGZFhcGYZhGMZkWFwZhmEYxmRYXBmGYRjGZFhcGYZhGMZk4t/P9RZnyLs0B573/xsXVXxcsvQpVP7P1che/jcY7DiA/qjdczS+iH6uoaEhGE3wcCUDgooMXDPTrs5+N/ISOky13wsNjXA1F2lXQ7j4MEwckLBr98HBjr26+0lgbuogEsGgQfRp9B7nqRgdZWgEoNkoUEvO/bE66pAdm2Ewe3KIeRHYsHUFCvVQmPMbChKSsrP+A0iQtyyNROVBw44jOKiPcayfE8JwXsiKb6k6UP/j1Nb14uDGE2hQscipRtambyHH+75pJ9qf+TmuqKXA0GdWAW/8Pbr/qkIxEc0gEuZAfq4Zvc24nLkQuZ4PQg+BKJ1xtEEOaaB/6XRD4uYdhpDG6x0apzc4mrB6vGVp2TB8Irnp0FjCPnULaLhGh9GxRnfO0eohUSzVbX2MZQPtd1B86xwz6FjtQKsaQ5lh4pEJdy5evxm9oU21b6qfayBM8T+9htN/aMV7NPUm4s6vF2HwDxeizgxrH/sxFg0IQf2nf5Ueqppp+DnU0zxNzqm456FaTNz/PmLxLc+ZNR82V73BKJ6EdR7w5l/x6VwbPH9Rpu00hOLXJ+PPG9/F7/9wEZYH52N+eitOp5XhKyWdePHvGvCeJR331Rh8aMV5XDvlIhomTIZnX/THTjcoKbVTcGnTZlHnXlzc92chGcSDKHzu+yhafp/IUu9DemYPLp3Sb4DoM+VAkzFzNZY3ZLXeTFfE7ZNx8QOjGsezn6sQwDsG0frhSXS4EpBVloUblHXeuIIe8j0VkzsxH3nJl4P7tkpIvGZjUvt7cF5VoRi9VS0Fc5HnaULrJW17A5e0/ejqHEBSmbghk1lxkP2WnwiEFVnTJ+Fam18ZEj9/D9lP82TWPDF9DmaWUTwVHlU3Cf1sGTPG6dgD+NMS4jzeSLcj9WPOXpn4JXFcDilshv+pP9fCDcQfiDrYC9vDW/bpg96bQj8OPm3IVhV51TlAo0PLPslYIBW4fWqK5ouqnytn31BWSWJMLj9mn0fJbnQ88yM0yukQBuYt9Rk1yZ/0HywB/ksvr2e0QnDvvgqHqqcdS1AoEtWbAolFNH6uNNi/nlWRLZxhHGGNZGSI5NBrORcMP5s6IjZv1Szk5vV73XR8oLGDvZZz4fbbD7KrG1ZGCHQgD1kiqQA2j+be0+K2wSo0ncYoLgWZIojyZJAg69MzYq2OIX/aIWhM5Yj9DhjmJnBrd2iS/qzL8eT6HLS9GYMxtz0b1mDCWfu4Nvj9+lKce2ushpi8XWS14nhINPf3It16u4prVNUV46p09hHZ70NpqDfFjFxkTM/9ApU0bdqAJBVN/4GKPbcEGSoWjCvNnci4/xewr61WEcHSO5CRNgt2VXdRkYrfDKL0c/VColxq8E6VTbo02D0N3h++KVX6wjp9BTMWb1Wr3Q60+O6vd+B9GnTfp/lYMGy/g6D7yapFIrCHrJiVYu2UPrME2dW19mqi36JvX5SBqyeoPy3DjCfiXlxH1beVMuCN+8R0QgitwYkmGtJsUN7jvhx+AZuk/+kuYJXRLWb0SK+cDdsxcTxKNK+49bZE7dlqtfuo9rxVZraZWEo3FtJFSJuPzXWGnrOqrHPLS1oWs/QpFNlOq6zzEC7LciE4+HP5+Q6skkLqzVDbD2n1qqnjoIqPKZogRu7nqqBnl1L8jCIqRIIytGP18OQvDON/GsgXNgZvVTGfJ27t/J8Pe5wfaOU7U1BhFONA+y0zdyXchow9ULYc2ENWK+sh4dTWaPhkviJbzbfJzwbzpx1Cy/w93OeRiWMS7ykECu8TGdZjATw844BofVsj9T8NjRoEPpwXKdmt9RWhZs1MFYgENaj/SH1e/eiqv4Ar187hz7KzkshMazJxtYeuPvSMVhPWV7erq5H3poKmo2i4Rh2ahjo6jcz/VOG6qIRWZKAyEJ6Bf/97OE54kJQjMtiuqxgouiNkc3KkjLWfq8wKpQ1bkOxUZmb+wukPmZqrWS/ReqsKwRLC6fLLfo1YbSRoWjNz0P0WmTsdsyZ2QxkwCWlwqHl4qIOVj+gGwFJQIfb7uhTMsP60UrTDnAeGuclMsC1ev3nie0/jn9+ijjiBibsOTfS88KfzMT97kkjXsnDnA3mw9KqOPd2TkF9TiPS+MK/zqDqWPFAqPl+AT/90CH/cp9ahB7flz0dx+rUwr3T0ovnI5yj/5sP4Wt29WEbTHZ/j4NVFeOap72CFjFXj+qGf4rV69RFxJ389w47ZBQnojuDVmuEdmrQsdO26LCE8k5AzV+x/lQfv/bYD3WXlePjRGfJ4LGeO4vXffCqy1NlYOVNkPNkFIk7HWop8SytOe81qbkPxvVN8OjT1DaSjvGIaEnp8tzsc6pxUjM/e0TsyKdqmYvLqJVoHpds6cWHCZFkmYe0/oPw785E6eRJSq8W6Owtx5Z16pPzgF5ixWuv8NCX1LFr/5Q+4cake/ZkPoPQ7D2gdmoa9vhN5h6bIjycIGflI87TBPZiHonTPsM5CPojMb25RGjAxHVmqQ0/S9Q5gmqHTTvZn6AjbrDyIpMx8TDS+ckKdmSZdRcewzkoLMXdWiVZ3ci+aPjwrj92/E5OEslBDZyOLW/UIDrLfoV6xSUjORlGR2m5mAtwXr6AvIRWlpTNELBWulvOYNInO1yCs02y4ccGvA9KNTzExZyZKpxci68Z5dCaIG6yPejDwcT8Gp81WnZnElDJgOOfihqGiGB6HOH/cmYmJYxK+/8LBQfvpcfgqTlAoMxy5/2nkXqQxEIXPa+BXcUab8eB/egv4uVITra3X75WaCCERHU+vq0S4v/K9Wk+4V4QY5uYzob+jaXOo13CIMctc55Vj/kgGkSDRWrMQFsduvP5+DJ+XaIMRLE5uwc7f1pv8OgcJwjqsnNGHA78+gLMqGgrKXOdWjt0gEnRT8b2vluHKod/gj60qGGdog0jMQM7kT3Cx2W8QiYqpSPqkB00qcx0PxxMUlcFl0as20WoJvfZj4mARowLdPMyhLFdkp9lJ6G4OnY2SsFpdR+C4EOr1JYaJD9jPlWEYhmFMhscWZhiGYRiTYXFlGIZhGJNhcWUYhmEYk2FxZRiGYRiTYXFlGIZhGJNhcWUYhmEYk2FxZRiGYRiTSZTOLXE6rjDDMAzDjEcSpXNLOD9ShmEYhmEihpuFGYZhGMZkErdsHRuvUYZhGIa5VUjctNeNyvWPo1YFGIZhGIYZGYk4fBodaoFhGIZhmJGTaF9zFwr7XDivAgzDMAzDjIzEb5e04LWfvQ6HCjAMwzAMMzISN7GwMgzDMIyp8Ks4DMMwDGMyLK4MwzAMYzIsrgzDMAxjMiyuDMMwDGMyLK4MwzAMYzIsrgzDMAxjMhMys/I2q/mg/O1X78fu/9yjlkaJnMX47iMrsKRmPsqTO3GirV+Lz/kKfrhmCRaJeL6nHqe7tfCtQTlWPbESK8SxLyq3oOMvTvSpNXFP7ePYcn8aDh4/pwIxYF+HZ/7HHPQcOYlLKhQ92Vi2fh1Wfnl8ncPax7bh3pR9qG9XAVMJ9rsax783JCO3ai7Srnbh2g0VioXMciyYloCuS+r644fVfjfyEjrg/lgFbgXCnBMmMAm7dh8cRN+JkANJvPyv/xuPfv9/qaVRgsR1BbBnx7voUiEJiWtZG57/XbMKKB6ahyfrMgHnKfxyK40vlYKl2+5CVaq2WnLtHN54+qxvfRFQ9exyLC3Q5p379+GtN2nOWL8HDTuO4OAxmo+OgHXXlOGR9cVIl9EAdQc7N5Ey7FxFh33NJny76na1BPQ1vIzndp5RS0EgcZ11emR2hiSuq4D/GNG72CSuS8XJ+y0OXFChcQCJq/3003jpsAqMBsF+VyP9vQVFCKB9Ki47epBRNR0DDc1wqzX+kIiVWtUCrqOz8QOc96jFgGShpCYT7mPB64wES8FClKAJTc7h6imFVdzga+tIzKuRn6StA1xokdv2jXu69PLREKxuhaUIFZUFsLgdOO6INtsIXneoc07rrK4jaO3VlpnwJMycvWBQzQcl7sSVxMJ+AW+4S/GwtSWwYKgyUYsJCV1dP16lz1EdNX1SoKcKUax2H8Wr28XdmyEe1cUnSN0+dQSKj+Rip85DyHMVBhLXldilBLUOG7aKndmrXfiNwquJLrD6J4+iMk2GFFfRuGMLdjlmGtbpMVlAisk9hdp8h6jbMWtoWYfi0YtNAHEl0V4GnLPO0/bFeHNJ69bPg9zFMDedwfC9GWnH28++gMNRbjOXxNV9AtYqLe49dmNZvW75nczC5QYrKuV2h86tz7507PG92RlrcSVRKPCgSexXiR1oDSoMJAAVgENd3ClzKoUSARJRO2yynCYM8BEFYkgYSCwr8ibLqFHojEIi471TNcHSQhoG8ZL1WNqHxIyOhY6hoV3cDvsLr8KvTMSEqlsKawpcXSniHAS+CQhJ0Lrhe879oc/J7+6WajocEePzmeubJ8KIhMgya1LQsD96IcGxs5r4Ec4+XJEzuSgr6EU9CausW2SBqWmYKtdFQcC6A+DuN++iFvZcRct+HG64isJZdfJCv9J6FNJw/9mXca5kNVbbz2DXz8Ty3nbtYi7X6Rf61cg4Ssti2tGC4lXrIP6fSwG4B3pZTUQOv0hlTqCPxMYQN43CeWpfXkYjSlFFO0Iitb4U53Zo24t19DLHzi3eY3lNCF7Nmpnaiii3WVgisnaKiXMpzzfEzcmqobJU9z2PUZwoQrG4AdLiQPE8sU36fmh4U6qDppG0IowQEqcFJF5WOxaQONJfe5Za608qLEn9GNAv8r29QkYJPTs9guNianHbYBX/Fd0OsdzikiJJ8ePHhoSVslAZaxTqYZsqxVMKqzjLWtkjmkB52tF0rB6dAyTYWnwoK8xCbl4/WozCkpICi8ejRDMLVut1uHp9hc6SKY7P1ROdsBJB6xbHL4S1S9xQDIgD8d9eRAStW5xzdONysJ2lz1gsvjcfTEgSt2zdhmf0//xfFB6yo8rdElOzrZGqumJcFYLoFTrKArffBduxo2i4Ju4ca1Q8Bvzrztt4t6h7OZ4U18qDpoqh+TguaA1U9nmlSCtcAfoNbdnqn636MxNVJbej8D4qKyZv9kVxoPHAGF/4hWgflmJ9Bt3u25GRK2ZrZ6Gw46g3m44Zyi7lOdnm05we7TY7jiqhPe9CnzUbdnu1ENAWNKiyjp1H0UFxudSOY6qpnsRdtjI46nEO8/DtrTffUtLjbPIKV4ubMkujePmRmQmbu9fQDKou6hQX/0pr7hYCrQmk3kxpsaSI679RbJKRYZsMS161LLugMgsuB2VrQlAsziAZGAmMEHW15EVs19LVNrQ/AtqeUGmtbnGzgBbfJlSKU6YbdWYpCFy3sdk7GUkWw81HFATdbzrHSQWokPGFyGUVHTGJm57dA3cVZRwqMu4ZQdZqgJ6NUjOw9ryVyBT19uGNjfoz2H64YhTv4XUDXduP4Jei7l9uvICy7fNQpeLxiD3Hij53p5ynpmCZFclpqJk3MNRcqZcVU4yZYXxD2eU8uPdqx/iayPJvHqoV4dnTsJPY/0RrKRhzqFm3hp7zacJYap2M/Mpy+LTkGtCE8ppaEssiA7QIsYXNBleLyip9MksIsRECbuxvY5kqZFiIqF5WZbNSRLyZmx9B1g0XbtreZJ99MT6LlJm0iDV5qCk1WUUjJ1DdloIiw42Ffi6Dn8NgBN1vmbmreEs/8gv8WhXoxibYeWMCkkjNfI4OdRf9RSBI1pq35Bv44RPfwLIcFQgKdVwyPF+VnMdZJ+DUM03aBvrQI9eNtO7YiHybIaDn2U9swKo5ajkSqKlRKP+5E2dkBptWUh34gq1nW2pRz9Zkc6UPZ9DQClQu05s3DTguwp1mw/CfJvVq3YAffq1cLZsEeRsX3hXkRjOabV7FZXlvp2XrIQm5TT/k+dCbk8VXQXaR7osR3KDsx0viJroj4LmMjBH93nqb0dR1XbuoNzrhks23hg46fpAAeMVMCHNFHtDp7BaZ2nUhdIHEijI5NatDQpCUAm+/HSPBmjepyVTNGqH98YW25wLpfXC0zHlIlCnzvBslmWoxKIHr9jg/8AoiNYHL58Hecziyun1JRm6+zefmhrDSjY0rSEsDExAhrnWwF+oXg3ECdQzavhwPV4r/CgWz8eT2u0VWSStysaoucNbadcaJK0iDNdyDUhLOVCC98i6tmVZMqx4CGraeEqdKW5ZNt4YORyOtW2tuVnVvL4Vrxwk0aJ8ISsTbDHquBCfbpFF++pRsbTkEaVWPquZceuanMtTDL+BtNzU7qqZeY/Ojt0mS4pukeBx+kVpJVD00qeeFjp270GjVm5e3YYO3ErrxK8I9w+LNOPuR+JNuhbjumogQob1uVK5X++eT6UW6TXWzIOtYDbSGe5cm1Db9EWXpWbUqK+0iQz1HNTRPb5Gd0KjzU2xE/HsLAjVj0kVdPof0ywJ90YTSVqo1rWodmbSs0+Nsh0dv5hXTUFb4MS4Lvcmv1OKayHTjfFeKtwl5gZ7liQyty6M3f4rJ+NyXnu3qTaZVRV6hHSbqMisO1HxMGbq+vWpYOmPoXRusbgP+mX3EBK1bE2fjfvs0Z4vjMjbBM8C7h/eFneSrOOF6YcblqzhRQ5lHJdy7RuOVjNGsWxDw3JixTepJ+yCsH76Et06q0DiBMqk11sYIfhfmvYoT+TbHCVH1Fh7l33hcY3zeGStm1BGMUaxb9U6mTlTm7/f4hcTTZstQS4FJpOdCpvbCHAlp5VjzxAZ8d4lfJjVtcfTNlwa0Jq3FwCHzLwyjWbe3KXJ1uXoHVsOUbcom4QcxvW33OBNW7Zysme7EzohFLg1Vq8V5XL84xkw3lm3GM4F/V6P6exvXdGtZcNDezaGRPaVriuBpNF+gRrNu72s7LKwxET/vuTIMwzDMOCCizFX9ZRiGYRjGJFhcGYZhGMZkWFwZhmEYxkS6u3tYXBmGYRjGTLKyprK4MgzDMIxZUNa6dOlyFleGYRiGMZMFC+bfBHGlF9TpXTqazB6+jmEYhmFuItQkvG3bP2quOPrwdGPChXfxyq9ewvOHtIHfGYZhGOaLhnTF6YAb3V88exKGYRiGuSkkkrOGteHtmAf0ZhiGYRjGl8TaKrfXZJlhGIZhmJGTWNhxmrNWhmEYhjGBU6eaUF29EImNB0L4QTIMwzAMEzGzZ1egvv4DJErTa4ZhGIZhTCOi91wHB8O60sXE6NTKMAzDMDeXsRfX7LvwyOPfw5O1eVSxCjIMwzDMF4eEmRXzwyrcSy/+Ehsee1ItMQzDMMyty7vvvB3eLJ2UNewkMsyAcZ544oknnni6xaZIiKhZ+PPPP1dzDMMwDMOEQ4hrIF32nbRnrjzxxBNPPPHEE+FyXQ45JQjh1EoyDMMwDGMKY285xzAMwzBfaID/Dw31PpXKNsLOAAAAAElFTkSuQmCC">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE4F4E4-78A6-4676-BFFF-D4639D1EFA06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11430000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
-                <a:schemeClr val="lt1"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CNeB</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579706</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>202917</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C397216-8A88-4A81-A065-D17197C86D83}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D431ADD-F7B7-40D4-9C30-8836DE6AE9BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11791951" y="3933826"/>
-          <a:ext cx="819150" cy="304800"/>
+          <a:off x="0" y="11289196"/>
+          <a:ext cx="5391902" cy="8849960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CNeB</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF567E9-7CBE-47D1-97E1-A271F0A22FFD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13096876" y="3886201"/>
-          <a:ext cx="771524" cy="352424"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CNeB</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0EFC782-C40A-4329-A10C-01AC19DC4C98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13134976" y="5067301"/>
-          <a:ext cx="771524" cy="352424"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr fontAlgn="base"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="1" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>CNeB</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -762,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF62FD6-8E97-4AA6-94AF-F4D713FE1987}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -772,4 +744,220 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{963F2CAB-85F7-477E-8C0C-7377AA59F59D}">
+  <dimension ref="A1:A47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>